--- a/Översikt NYNÄSHAMN.xlsx
+++ b/Översikt NYNÄSHAMN.xlsx
@@ -575,7 +575,7 @@
         <v>45569</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>45856</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
         <v>44935</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>45257</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45846</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>44873.62881944444</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         <v>44424</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1243,14 +1243,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 22716-2025</t>
+          <t>A 36131-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45789.56619212963</v>
+        <v>45866.62395833333</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,22 +1262,17 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>5.2</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1292,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1301,121 +1296,126 @@
         <v>3</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Vedskivlav
+Fällmossa
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 36131-2025 artfynd.xlsx", "A 36131-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 36131-2025 karta.png", "A 36131-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 36131-2025 FSC-klagomål.docx", "A 36131-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 36131-2025 FSC-klagomål mail.docx", "A 36131-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 36131-2025 tillsynsbegäran.docx", "A 36131-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 36131-2025 tillsynsbegäran mail.docx", "A 36131-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 22716-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45789.56619212963</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NYNÄSHAMN</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Björksplintborre
 Stekelbock
 Revlummer</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 22716-2025 artfynd.xlsx", "A 22716-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 22716-2025 karta.png", "A 22716-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 22716-2025 FSC-klagomål.docx", "A 22716-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 22716-2025 FSC-klagomål mail.docx", "A 22716-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 22716-2025 tillsynsbegäran.docx", "A 22716-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 22716-2025 tillsynsbegäran mail.docx", "A 22716-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 36131-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45866.62395833333</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>NYNÄSHAMN</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>3</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Vedskivlav
-Fällmossa
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 36131-2025 artfynd.xlsx", "A 36131-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 36131-2025 karta.png", "A 36131-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 36131-2025 FSC-klagomål.docx", "A 36131-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 36131-2025 FSC-klagomål mail.docx", "A 36131-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 36131-2025 tillsynsbegäran.docx", "A 36131-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 36131-2025 tillsynsbegäran mail.docx", "A 36131-2025")</f>
         <v/>
       </c>
     </row>
@@ -1429,7 +1429,7 @@
         <v>44284</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44295</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1604,14 +1604,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 64189-2023</t>
+          <t>A 9268-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45279</v>
+        <v>44980</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1624,16 +1624,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.5</v>
+        <v>4.9</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1658,466 +1658,466 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
+          <t>Tallticka
+Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 9268-2023 artfynd.xlsx", "A 9268-2023")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 9268-2023 karta.png", "A 9268-2023")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 9268-2023 FSC-klagomål.docx", "A 9268-2023")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 9268-2023 FSC-klagomål mail.docx", "A 9268-2023")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 9268-2023 tillsynsbegäran.docx", "A 9268-2023")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 9268-2023 tillsynsbegäran mail.docx", "A 9268-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 64189-2023</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45279</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NYNÄSHAMN</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
           <t>Blåsippa
 Gullviva</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 64189-2023 artfynd.xlsx", "A 64189-2023")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 64189-2023 karta.png", "A 64189-2023")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 64189-2023 FSC-klagomål.docx", "A 64189-2023")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 64189-2023 FSC-klagomål mail.docx", "A 64189-2023")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 64189-2023 tillsynsbegäran.docx", "A 64189-2023")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 64189-2023 tillsynsbegäran mail.docx", "A 64189-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 1561-2023</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>44937.60278935185</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NYNÄSHAMN</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Tallticka
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 1561-2023 artfynd.xlsx", "A 1561-2023")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 1561-2023 karta.png", "A 1561-2023")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 1561-2023 FSC-klagomål.docx", "A 1561-2023")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 1561-2023 FSC-klagomål mail.docx", "A 1561-2023")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 1561-2023 tillsynsbegäran.docx", "A 1561-2023")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 1561-2023 tillsynsbegäran mail.docx", "A 1561-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 49523-2023</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45211</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NYNÄSHAMN</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Grönpyrola
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 49523-2023 artfynd.xlsx", "A 49523-2023")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 49523-2023 karta.png", "A 49523-2023")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 49523-2023 FSC-klagomål.docx", "A 49523-2023")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 49523-2023 FSC-klagomål mail.docx", "A 49523-2023")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 49523-2023 tillsynsbegäran.docx", "A 49523-2023")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 49523-2023 tillsynsbegäran mail.docx", "A 49523-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 5567-2023</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>44960</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>NYNÄSHAMN</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
+      <c r="C17" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NYNÄSHAMN</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
         <v>10.1</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H17" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>2</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Sårläka
 Blåsippa</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 5567-2023 artfynd.xlsx", "A 5567-2023")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 5567-2023 karta.png", "A 5567-2023")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 5567-2023 FSC-klagomål.docx", "A 5567-2023")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 5567-2023 FSC-klagomål mail.docx", "A 5567-2023")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 5567-2023 tillsynsbegäran.docx", "A 5567-2023")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 5567-2023 tillsynsbegäran mail.docx", "A 5567-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 9268-2023</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>44980</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>NYNÄSHAMN</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A 19784-2025</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>45771.43894675926</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NYNÄSHAMN</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>1</v>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>2</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Tallticka
-Mindre märgborre</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 9268-2023 artfynd.xlsx", "A 9268-2023")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 9268-2023 karta.png", "A 9268-2023")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 9268-2023 FSC-klagomål.docx", "A 9268-2023")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 9268-2023 FSC-klagomål mail.docx", "A 9268-2023")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 9268-2023 tillsynsbegäran.docx", "A 9268-2023")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 9268-2023 tillsynsbegäran mail.docx", "A 9268-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 19784-2025</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45771.43894675926</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>NYNÄSHAMN</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Revlummer</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 19784-2025 artfynd.xlsx", "A 19784-2025")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 19784-2025 karta.png", "A 19784-2025")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 19784-2025 FSC-klagomål.docx", "A 19784-2025")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 19784-2025 FSC-klagomål mail.docx", "A 19784-2025")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 19784-2025 tillsynsbegäran.docx", "A 19784-2025")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 19784-2025 tillsynsbegäran mail.docx", "A 19784-2025")</f>
         <v/>
       </c>
-      <c r="Z16">
+      <c r="Z18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/fåglar/A 19784-2025 prioriterade fågelarter.docx", "A 19784-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 1561-2023</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>44937.60278935185</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>NYNÄSHAMN</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Tallticka
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 1561-2023 artfynd.xlsx", "A 1561-2023")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 1561-2023 karta.png", "A 1561-2023")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 1561-2023 FSC-klagomål.docx", "A 1561-2023")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 1561-2023 FSC-klagomål mail.docx", "A 1561-2023")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 1561-2023 tillsynsbegäran.docx", "A 1561-2023")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 1561-2023 tillsynsbegäran mail.docx", "A 1561-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 49523-2023</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>45211</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>NYNÄSHAMN</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Grönpyrola
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 49523-2023 artfynd.xlsx", "A 49523-2023")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 49523-2023 karta.png", "A 49523-2023")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 49523-2023 FSC-klagomål.docx", "A 49523-2023")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 49523-2023 FSC-klagomål mail.docx", "A 49523-2023")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 49523-2023 tillsynsbegäran.docx", "A 49523-2023")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 49523-2023 tillsynsbegäran mail.docx", "A 49523-2023")</f>
         <v/>
       </c>
     </row>
@@ -2131,7 +2131,7 @@
         <v>44370</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>44271</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2299,14 +2299,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 64196-2023</t>
+          <t>A 31842-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45279</v>
+        <v>45118</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2318,14 +2318,19 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2353,45 +2358,45 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 64196-2023 artfynd.xlsx", "A 64196-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 31842-2023 artfynd.xlsx", "A 31842-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 64196-2023 karta.png", "A 64196-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 31842-2023 karta.png", "A 31842-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 64196-2023 FSC-klagomål.docx", "A 64196-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 31842-2023 FSC-klagomål.docx", "A 31842-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 64196-2023 FSC-klagomål mail.docx", "A 64196-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 31842-2023 FSC-klagomål mail.docx", "A 31842-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 64196-2023 tillsynsbegäran.docx", "A 64196-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 31842-2023 tillsynsbegäran.docx", "A 31842-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 64196-2023 tillsynsbegäran mail.docx", "A 64196-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 31842-2023 tillsynsbegäran mail.docx", "A 31842-2023")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 31842-2023</t>
+          <t>A 64196-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45118</v>
+        <v>45279</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2403,19 +2408,14 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2443,45 +2443,45 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 31842-2023 artfynd.xlsx", "A 31842-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 64196-2023 artfynd.xlsx", "A 64196-2023")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 31842-2023 karta.png", "A 31842-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 64196-2023 karta.png", "A 64196-2023")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 31842-2023 FSC-klagomål.docx", "A 31842-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 64196-2023 FSC-klagomål.docx", "A 64196-2023")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 31842-2023 FSC-klagomål mail.docx", "A 31842-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 64196-2023 FSC-klagomål mail.docx", "A 64196-2023")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 31842-2023 tillsynsbegäran.docx", "A 31842-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 64196-2023 tillsynsbegäran.docx", "A 64196-2023")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 31842-2023 tillsynsbegäran mail.docx", "A 31842-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 64196-2023 tillsynsbegäran mail.docx", "A 64196-2023")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 4688-2023</t>
+          <t>A 37100-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44957</v>
+        <v>44396</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2494,16 +2494,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2528,49 +2528,45 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Lundsångare</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 4688-2023 artfynd.xlsx", "A 4688-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 37100-2021 artfynd.xlsx", "A 37100-2021")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 4688-2023 karta.png", "A 4688-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 37100-2021 karta.png", "A 37100-2021")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 4688-2023 FSC-klagomål.docx", "A 4688-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 37100-2021 FSC-klagomål.docx", "A 37100-2021")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 4688-2023 FSC-klagomål mail.docx", "A 4688-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 37100-2021 FSC-klagomål mail.docx", "A 37100-2021")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 4688-2023 tillsynsbegäran.docx", "A 4688-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 37100-2021 tillsynsbegäran.docx", "A 37100-2021")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 4688-2023 tillsynsbegäran mail.docx", "A 4688-2023")</f>
-        <v/>
-      </c>
-      <c r="Z23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/fåglar/A 4688-2023 prioriterade fågelarter.docx", "A 4688-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 37100-2021 tillsynsbegäran mail.docx", "A 37100-2021")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 37100-2021</t>
+          <t>A 31142-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44396</v>
+        <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2583,79 +2579,79 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.4</v>
+        <v>5.7</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
         <v>1</v>
       </c>
-      <c r="I24" t="n">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>1</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 37100-2021 artfynd.xlsx", "A 37100-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 31142-2023 artfynd.xlsx", "A 31142-2023")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 37100-2021 karta.png", "A 37100-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 31142-2023 karta.png", "A 31142-2023")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 37100-2021 FSC-klagomål.docx", "A 37100-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 31142-2023 FSC-klagomål.docx", "A 31142-2023")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 37100-2021 FSC-klagomål mail.docx", "A 37100-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 31142-2023 FSC-klagomål mail.docx", "A 31142-2023")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 37100-2021 tillsynsbegäran.docx", "A 37100-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 31142-2023 tillsynsbegäran.docx", "A 31142-2023")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 37100-2021 tillsynsbegäran mail.docx", "A 37100-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 31142-2023 tillsynsbegäran mail.docx", "A 31142-2023")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 31142-2023</t>
+          <t>A 10059-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45113</v>
+        <v>44621</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2668,13 +2664,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>5.7</v>
+        <v>17</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2683,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -2692,55 +2688,55 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 31142-2023 artfynd.xlsx", "A 31142-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 10059-2022 artfynd.xlsx", "A 10059-2022")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 31142-2023 karta.png", "A 31142-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 10059-2022 karta.png", "A 10059-2022")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 31142-2023 FSC-klagomål.docx", "A 31142-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 10059-2022 FSC-klagomål.docx", "A 10059-2022")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 31142-2023 FSC-klagomål mail.docx", "A 31142-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 10059-2022 FSC-klagomål mail.docx", "A 10059-2022")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 31142-2023 tillsynsbegäran.docx", "A 31142-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 10059-2022 tillsynsbegäran.docx", "A 10059-2022")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 31142-2023 tillsynsbegäran mail.docx", "A 31142-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 10059-2022 tillsynsbegäran mail.docx", "A 10059-2022")</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 31828-2023</t>
+          <t>A 33528-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45118</v>
+        <v>45131</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2752,13 +2748,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G26" t="n">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2792,45 +2783,45 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Strutbräken</t>
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 31828-2023 artfynd.xlsx", "A 31828-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 33528-2023 artfynd.xlsx", "A 33528-2023")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 31828-2023 karta.png", "A 31828-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 33528-2023 karta.png", "A 33528-2023")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 31828-2023 FSC-klagomål.docx", "A 31828-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 33528-2023 FSC-klagomål.docx", "A 33528-2023")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 31828-2023 FSC-klagomål mail.docx", "A 31828-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 33528-2023 FSC-klagomål mail.docx", "A 33528-2023")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 31828-2023 tillsynsbegäran.docx", "A 31828-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 33528-2023 tillsynsbegäran.docx", "A 33528-2023")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 31828-2023 tillsynsbegäran mail.docx", "A 31828-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 33528-2023 tillsynsbegäran mail.docx", "A 33528-2023")</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 33528-2023</t>
+          <t>A 4688-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45131</v>
+        <v>44957</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2843,17 +2834,17 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
         <v>1</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
@@ -2867,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -2877,45 +2868,49 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Strutbräken</t>
+          <t>Lundsångare</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 33528-2023 artfynd.xlsx", "A 33528-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 4688-2023 artfynd.xlsx", "A 4688-2023")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 33528-2023 karta.png", "A 33528-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 4688-2023 karta.png", "A 4688-2023")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 33528-2023 FSC-klagomål.docx", "A 33528-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 4688-2023 FSC-klagomål.docx", "A 4688-2023")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 33528-2023 FSC-klagomål mail.docx", "A 33528-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 4688-2023 FSC-klagomål mail.docx", "A 4688-2023")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 33528-2023 tillsynsbegäran.docx", "A 33528-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 4688-2023 tillsynsbegäran.docx", "A 4688-2023")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 33528-2023 tillsynsbegäran mail.docx", "A 33528-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 4688-2023 tillsynsbegäran mail.docx", "A 4688-2023")</f>
+        <v/>
+      </c>
+      <c r="Z27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/fåglar/A 4688-2023 prioriterade fågelarter.docx", "A 4688-2023")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 6435-2023</t>
+          <t>A 31828-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44965</v>
+        <v>45118</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2927,17 +2922,22 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G28" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -2962,45 +2962,45 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 6435-2023 artfynd.xlsx", "A 6435-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 31828-2023 artfynd.xlsx", "A 31828-2023")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 6435-2023 karta.png", "A 6435-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 31828-2023 karta.png", "A 31828-2023")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 6435-2023 FSC-klagomål.docx", "A 6435-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 31828-2023 FSC-klagomål.docx", "A 31828-2023")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 6435-2023 FSC-klagomål mail.docx", "A 6435-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 31828-2023 FSC-klagomål mail.docx", "A 31828-2023")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 6435-2023 tillsynsbegäran.docx", "A 6435-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 31828-2023 tillsynsbegäran.docx", "A 31828-2023")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 6435-2023 tillsynsbegäran mail.docx", "A 6435-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 31828-2023 tillsynsbegäran mail.docx", "A 31828-2023")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 10059-2022</t>
+          <t>A 6435-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44621</v>
+        <v>44965</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3013,17 +3013,17 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>17</v>
+        <v>1.8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
         <v>1</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -3047,31 +3047,31 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 10059-2022 artfynd.xlsx", "A 10059-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 6435-2023 artfynd.xlsx", "A 6435-2023")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 10059-2022 karta.png", "A 10059-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 6435-2023 karta.png", "A 6435-2023")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 10059-2022 FSC-klagomål.docx", "A 10059-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 6435-2023 FSC-klagomål.docx", "A 6435-2023")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 10059-2022 FSC-klagomål mail.docx", "A 10059-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 6435-2023 FSC-klagomål mail.docx", "A 6435-2023")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 10059-2022 tillsynsbegäran.docx", "A 10059-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 6435-2023 tillsynsbegäran.docx", "A 6435-2023")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 10059-2022 tillsynsbegäran mail.docx", "A 10059-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 6435-2023 tillsynsbegäran mail.docx", "A 6435-2023")</f>
         <v/>
       </c>
     </row>
@@ -3085,7 +3085,7 @@
         <v>44670</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>44410.60496527778</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3220,14 +3220,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 26757-2021</t>
+          <t>A 37422-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44349</v>
+        <v>44398</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4</v>
+        <v>25.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3277,14 +3277,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 37422-2021</t>
+          <t>A 26757-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44398</v>
+        <v>44349</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>25.8</v>
+        <v>4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3341,7 +3341,7 @@
         <v>44420</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>44349</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>44621</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44285</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>44333</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>44418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>44285</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>44300</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3810,14 +3810,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 25334-2021</t>
+          <t>A 24805-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44342</v>
+        <v>44340.66033564815</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3872,14 +3872,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 24805-2021</t>
+          <t>A 25334-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44340.66033564815</v>
+        <v>44342</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3941,7 +3941,7 @@
         <v>44242</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>44538</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>44424</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4110,14 +4110,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 73963-2021</t>
+          <t>A 40183-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44553.79121527778</v>
+        <v>44418</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4129,8 +4129,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>0.3</v>
+        <v>4.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4167,14 +4172,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 73966-2021</t>
+          <t>A 73963-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44553.81094907408</v>
+        <v>44553.79121527778</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4187,7 +4192,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4.3</v>
+        <v>0.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4224,14 +4229,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 73967-2021</t>
+          <t>A 73966-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44553.81719907407</v>
+        <v>44553.81094907408</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4244,7 +4249,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.3</v>
+        <v>4.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4281,14 +4286,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 40183-2021</t>
+          <t>A 73967-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44418</v>
+        <v>44553.81719907407</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4300,13 +4305,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4350,7 +4350,7 @@
         <v>44418</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4405,14 +4405,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 10525-2021</t>
+          <t>A 49657-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44258</v>
+        <v>44455.45670138889</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4462,14 +4462,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 49657-2021</t>
+          <t>A 10525-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44455.45670138889</v>
+        <v>44258</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4526,7 +4526,7 @@
         <v>44854</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4581,14 +4581,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 36468-2025</t>
+          <t>A 26750-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45869.47163194444</v>
+        <v>44349</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4638,14 +4638,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 30910-2023</t>
+          <t>A 52911-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45113</v>
+        <v>45610.70392361111</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4695,14 +4695,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 36509-2025</t>
+          <t>A 15465-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45869.57434027778</v>
+        <v>45747.51586805555</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4752,14 +4752,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 36496-2025</t>
+          <t>A 24288-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45869.55287037037</v>
+        <v>45457.4562037037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>5.3</v>
+        <v>1.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4809,14 +4809,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 8932-2023</t>
+          <t>A 26190-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44979</v>
+        <v>44735</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4866,14 +4866,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 1658-2022</t>
+          <t>A 27748-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44574</v>
+        <v>45098</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4885,13 +4885,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4928,14 +4923,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 7457-2025</t>
+          <t>A 7180-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45705.43699074074</v>
+        <v>45344</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4948,7 +4943,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4985,14 +4980,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 37103-2021</t>
+          <t>A 2367-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44396</v>
+        <v>44942.67042824074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5005,7 +5000,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>12.4</v>
+        <v>1.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5042,14 +5037,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 37104-2021</t>
+          <t>A 37491-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44396</v>
+        <v>44809</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5062,7 +5057,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5099,14 +5094,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 52950-2024</t>
+          <t>A 8932-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45610.89103009259</v>
+        <v>44979</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5119,7 +5114,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>5.3</v>
+        <v>2.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5156,14 +5151,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 37491-2022</t>
+          <t>A 31808-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44809</v>
+        <v>45118.47105324074</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5173,6 +5168,11 @@
       <c r="E65" t="inlineStr">
         <is>
           <t>NYNÄSHAMN</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -5213,14 +5213,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 34660-2023</t>
+          <t>A 1658-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45140</v>
+        <v>44574</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5232,8 +5232,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5270,14 +5275,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 17991-2024</t>
+          <t>A 41281-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45419</v>
+        <v>44424</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5290,7 +5295,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5327,14 +5332,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 31808-2023</t>
+          <t>A 37098-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45118.47105324074</v>
+        <v>44396</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5346,13 +5351,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>4.3</v>
+        <v>12.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5389,14 +5389,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 26750-2021</t>
+          <t>A 26501-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44349</v>
+        <v>45469</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5446,14 +5446,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 23397-2025</t>
+          <t>A 9020-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45791.90849537037</v>
+        <v>44979</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5465,8 +5465,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>12.7</v>
+        <v>8.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5503,14 +5508,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 37097-2021</t>
+          <t>A 32092-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44395</v>
+        <v>45119</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5522,8 +5527,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>1.5</v>
+        <v>12.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5560,14 +5570,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 26501-2024</t>
+          <t>A 23397-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45469</v>
+        <v>45791.90849537037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5580,7 +5590,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.5</v>
+        <v>12.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5617,14 +5627,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 8932-2023</t>
+          <t>A 29811-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44979</v>
+        <v>45825</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5636,8 +5646,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>2.3</v>
+        <v>4.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5674,14 +5689,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 38771-2021</t>
+          <t>A 63931-2021</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44410</v>
+        <v>44509</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5693,8 +5708,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5731,14 +5751,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 9020-2023</t>
+          <t>A 62013-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44979</v>
+        <v>45266</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5750,13 +5770,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>8.1</v>
+        <v>1.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5793,14 +5808,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 9062-2023</t>
+          <t>A 62038-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44979.72369212963</v>
+        <v>45266</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5812,13 +5827,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>3.4</v>
+        <v>5.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5855,14 +5865,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 6775-2022</t>
+          <t>A 47128-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44602.52413194445</v>
+        <v>45196</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5875,7 +5885,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>4.7</v>
+        <v>2.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5912,14 +5922,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 46818-2025</t>
+          <t>A 46856-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45926.71837962963</v>
+        <v>45928.88810185185</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5932,7 +5942,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>9.4</v>
+        <v>2.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5969,14 +5979,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 47463-2025</t>
+          <t>A 46857-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45930.66210648148</v>
+        <v>45928.89146990741</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5989,7 +5999,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6026,14 +6036,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 13947-2025</t>
+          <t>A 32074-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45737</v>
+        <v>45119</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6045,8 +6055,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>5</v>
+        <v>13.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6083,14 +6098,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 46856-2025</t>
+          <t>A 46818-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45928.88810185185</v>
+        <v>45926.71837962963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6103,7 +6118,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.2</v>
+        <v>9.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6140,14 +6155,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 46857-2025</t>
+          <t>A 47463-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45928.89146990741</v>
+        <v>45930.66210648148</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6160,7 +6175,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6197,14 +6212,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 47128-2023</t>
+          <t>A 9017-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45196</v>
+        <v>44979</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6216,8 +6231,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6261,7 +6281,7 @@
         <v>45935.85752314814</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6311,14 +6331,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 2367-2023</t>
+          <t>A 36052-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44942.67042824074</v>
+        <v>45149</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6331,7 +6351,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6368,14 +6388,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 5233-2026</t>
+          <t>A 52953-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>46049.83694444445</v>
+        <v>45610.92077546296</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6388,7 +6408,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>9</v>
+        <v>6.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6425,14 +6445,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 50956-2025</t>
+          <t>A 15176-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45946</v>
+        <v>45400</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6482,14 +6502,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 5884-2026</t>
+          <t>A 13945-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>46052.40635416667</v>
+        <v>45737.71512731481</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6501,13 +6521,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6544,14 +6559,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 51954-2025</t>
+          <t>A 7457-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45952</v>
+        <v>45705.43699074074</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6564,7 +6579,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.6</v>
+        <v>7.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6601,14 +6616,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 15176-2024</t>
+          <t>A 35483-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45400</v>
+        <v>45855</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6621,7 +6636,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6658,14 +6673,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 47258-2024</t>
+          <t>A 36082-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45586.76025462963</v>
+        <v>45866.45336805555</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6677,13 +6692,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>1.9</v>
+        <v>4.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6720,14 +6730,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 25175-2023</t>
+          <t>A 51954-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45086</v>
+        <v>45952</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6740,7 +6750,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6777,14 +6787,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 34385-2023</t>
+          <t>A 36509-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45139</v>
+        <v>45869.57434027778</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6797,7 +6807,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6834,14 +6844,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 52859-2024</t>
+          <t>A 36496-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45610.61542824074</v>
+        <v>45869.55287037037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6854,7 +6864,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.3</v>
+        <v>5.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6891,14 +6901,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 63931-2021</t>
+          <t>A 36468-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44509</v>
+        <v>45869.47163194444</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6910,13 +6920,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6953,14 +6958,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 62634-2022</t>
+          <t>A 6775-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44917</v>
+        <v>44602.52413194445</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6973,7 +6978,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>15.8</v>
+        <v>4.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7010,14 +7015,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 24288-2024</t>
+          <t>A 17990-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45457.4562037037</v>
+        <v>45419</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7030,7 +7035,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7067,14 +7072,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 8939-2023</t>
+          <t>A 64411-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44979</v>
+        <v>45280.63304398148</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7087,7 +7092,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.7</v>
+        <v>5.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7124,14 +7129,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 52911-2024</t>
+          <t>A 52950-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45610.70392361111</v>
+        <v>45610.89103009259</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7144,7 +7149,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.8</v>
+        <v>5.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7181,14 +7186,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 56210-2025</t>
+          <t>A 3341-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45974.47630787037</v>
+        <v>45679</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7200,8 +7205,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7238,14 +7248,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 56385-2025</t>
+          <t>A 41677-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45974.71993055556</v>
+        <v>45173</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7258,7 +7268,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7295,14 +7305,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 57375-2024</t>
+          <t>A 41680-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45629.67396990741</v>
+        <v>45173</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7315,7 +7325,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.9</v>
+        <v>12.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7352,14 +7362,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 26505-2024</t>
+          <t>A 56210-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45469</v>
+        <v>45974.47630787037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7372,7 +7382,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>4.7</v>
+        <v>0.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7409,14 +7419,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 47089-2023</t>
+          <t>A 56385-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45196</v>
+        <v>45974.71993055556</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7429,7 +7439,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.8</v>
+        <v>6.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7466,14 +7476,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 47093-2023</t>
+          <t>A 37097-2021</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45196</v>
+        <v>44395</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7486,7 +7496,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7523,14 +7533,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 17990-2024</t>
+          <t>A 57375-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45419</v>
+        <v>45629.67396990741</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7543,7 +7553,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.4</v>
+        <v>2.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7580,14 +7590,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 32092-2023</t>
+          <t>A 34818-2021</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45119</v>
+        <v>44383.35518518519</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7599,13 +7609,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>12.4</v>
+        <v>0.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7642,14 +7647,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 15839-2025</t>
+          <t>A 40895-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45748.868125</v>
+        <v>45558.61607638889</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7662,7 +7667,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7699,14 +7704,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 34818-2021</t>
+          <t>A 2170-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44383.35518518519</v>
+        <v>44941</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7719,7 +7724,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7756,14 +7761,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 18411-2025</t>
+          <t>A 21192-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45762.61413194444</v>
+        <v>45062</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7776,7 +7781,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>11</v>
+        <v>4.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7813,14 +7818,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 40895-2024</t>
+          <t>A 9062-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45558.61607638889</v>
+        <v>44979.72369212963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7832,8 +7837,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7870,14 +7880,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 32011-2023</t>
+          <t>A 25175-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45119</v>
+        <v>45086</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7889,13 +7899,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>5.4</v>
+        <v>1.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7932,14 +7937,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 21192-2023</t>
+          <t>A 44206-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45062</v>
+        <v>45573</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7952,7 +7957,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4.8</v>
+        <v>0.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7989,14 +7994,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 36052-2023</t>
+          <t>A 32011-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45149</v>
+        <v>45119</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8008,8 +8013,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>1.9</v>
+        <v>5.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8046,14 +8056,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 48978-2023</t>
+          <t>A 63463-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45209</v>
+        <v>45274</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8065,13 +8075,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8108,14 +8113,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 41680-2023</t>
+          <t>A 15460-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45173</v>
+        <v>45747.51049768519</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8128,7 +8133,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>12.3</v>
+        <v>1.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8165,14 +8170,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 26190-2022</t>
+          <t>A 5233-2026</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44735</v>
+        <v>46049.83694444445</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8185,7 +8190,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8222,14 +8227,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 63463-2023</t>
+          <t>A 33667-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45274</v>
+        <v>44789</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8242,7 +8247,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.8</v>
+        <v>3.3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8279,14 +8284,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 64494-2023</t>
+          <t>A 62878-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45280.93269675926</v>
+        <v>45272</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8299,7 +8304,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8336,14 +8341,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 62013-2023</t>
+          <t>A 50956-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45266</v>
+        <v>45946</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8356,7 +8361,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8393,14 +8398,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 55871-2023</t>
+          <t>A 62634-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45239.73435185185</v>
+        <v>44917</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8412,13 +8417,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>5.2</v>
+        <v>15.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8455,14 +8455,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 27748-2023</t>
+          <t>A 37103-2021</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45098</v>
+        <v>44396</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.2</v>
+        <v>12.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8512,14 +8512,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 62038-2023</t>
+          <t>A 37104-2021</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45266</v>
+        <v>44396</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>5.6</v>
+        <v>3.8</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8569,14 +8569,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 7180-2024</t>
+          <t>A 5884-2026</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45344</v>
+        <v>46052.40635416667</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8588,8 +8588,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>1.5</v>
+        <v>4.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8626,14 +8631,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 41677-2023</t>
+          <t>A 55871-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45173</v>
+        <v>45239.73435185185</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8645,8 +8650,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>6.2</v>
+        <v>5.2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8683,14 +8693,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 62878-2023</t>
+          <t>A 26505-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45272</v>
+        <v>45469</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8703,7 +8713,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8740,14 +8750,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 17634-2022</t>
+          <t>A 52859-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44680</v>
+        <v>45610.61542824074</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8760,7 +8770,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8797,14 +8807,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 44619-2023</t>
+          <t>A 34385-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45189</v>
+        <v>45139</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8817,7 +8827,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>7.6</v>
+        <v>0.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8854,14 +8864,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 64411-2023</t>
+          <t>A 34660-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45280.63304398148</v>
+        <v>45140</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8874,7 +8884,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>5.6</v>
+        <v>1.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8911,14 +8921,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 44206-2024</t>
+          <t>A 44624-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45573</v>
+        <v>45184</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8931,7 +8941,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.8</v>
+        <v>6.8</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8968,14 +8978,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 52910-2024</t>
+          <t>A 30910-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45610.69866898148</v>
+        <v>45113</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8988,7 +8998,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9025,14 +9035,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 44624-2023</t>
+          <t>A 15839-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45184</v>
+        <v>45748.868125</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9045,7 +9055,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>6.8</v>
+        <v>2.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9082,14 +9092,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 9017-2023</t>
+          <t>A 41767-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44979</v>
+        <v>45561.34616898148</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9101,13 +9111,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9144,14 +9149,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 32074-2023</t>
+          <t>A 64494-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45119</v>
+        <v>45280.93269675926</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9163,13 +9168,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>13.1</v>
+        <v>2.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9206,14 +9206,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 33787-2024</t>
+          <t>A 47089-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45520</v>
+        <v>45196</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9263,14 +9263,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 41281-2021</t>
+          <t>A 47093-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44424</v>
+        <v>45196</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9320,14 +9320,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 35356-2023</t>
+          <t>A 8939-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45146.51179398148</v>
+        <v>44979</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9377,14 +9377,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 33667-2022</t>
+          <t>A 48978-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44789</v>
+        <v>45209</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9396,8 +9396,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9434,14 +9439,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 15460-2025</t>
+          <t>A 60977-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45747.51049768519</v>
+        <v>44908</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9454,7 +9459,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9491,14 +9496,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 16793-2023</t>
+          <t>A 17991-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45028</v>
+        <v>45419</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9511,7 +9516,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9548,14 +9553,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 10224-2023</t>
+          <t>A 16793-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44986.61554398148</v>
+        <v>45028</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9568,7 +9573,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9605,14 +9610,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 636-2025</t>
+          <t>A 8932-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45664.63822916667</v>
+        <v>44979</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9625,7 +9630,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9662,14 +9667,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 60977-2022</t>
+          <t>A 10224-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44908</v>
+        <v>44986.61554398148</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9682,7 +9687,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9719,14 +9724,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 2170-2023</t>
+          <t>A 17634-2022</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44941</v>
+        <v>44680</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9739,7 +9744,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9776,14 +9781,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 41767-2024</t>
+          <t>A 33787-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45561.34616898148</v>
+        <v>45520</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9796,7 +9801,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9833,14 +9838,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 15465-2025</t>
+          <t>A 44619-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45747.51586805555</v>
+        <v>45189</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9853,7 +9858,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.7</v>
+        <v>7.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9890,14 +9895,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 3341-2025</t>
+          <t>A 636-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45679</v>
+        <v>45664.63822916667</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9909,13 +9914,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G147" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9952,14 +9952,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 1658-2022</t>
+          <t>A 52910-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44574</v>
+        <v>45610.69866898148</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9971,13 +9971,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10014,14 +10009,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 21202-2025</t>
+          <t>A 38771-2021</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45779.47872685185</v>
+        <v>44410</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10034,7 +10029,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>3.5</v>
+        <v>0.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10071,14 +10066,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 22721-2025</t>
+          <t>A 35356-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45789.57309027778</v>
+        <v>45146.51179398148</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10090,13 +10085,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G150" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10133,14 +10123,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 22740-2025</t>
+          <t>A 18411-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45789.59407407408</v>
+        <v>45762.61413194444</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10152,13 +10142,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G151" t="n">
-        <v>0.8</v>
+        <v>11</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10195,14 +10180,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 22730-2025</t>
+          <t>A 47258-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45789.57819444445</v>
+        <v>45586.76025462963</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10216,11 +10201,11 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10257,14 +10242,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 37098-2021</t>
+          <t>A 13947-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44396</v>
+        <v>45737</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10277,7 +10262,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>12.9</v>
+        <v>5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10314,14 +10299,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 29811-2025</t>
+          <t>A 1658-2022</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45825</v>
+        <v>44574</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10335,11 +10320,11 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>4.7</v>
+        <v>2.5</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10376,14 +10361,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 52953-2024</t>
+          <t>A 21202-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45610.92077546296</v>
+        <v>45779.47872685185</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10396,7 +10381,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>6.4</v>
+        <v>3.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10433,14 +10418,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 13945-2025</t>
+          <t>A 22730-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45737.71512731481</v>
+        <v>45789.57819444445</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10452,8 +10437,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G156" t="n">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10490,14 +10480,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 35483-2025</t>
+          <t>A 22721-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45855</v>
+        <v>45789.57309027778</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10509,8 +10499,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G157" t="n">
-        <v>7.5</v>
+        <v>1.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10547,14 +10542,14 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 36082-2025</t>
+          <t>A 22740-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45866.45336805555</v>
+        <v>45789.59407407408</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10566,8 +10561,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G158" t="n">
-        <v>4.2</v>
+        <v>0.8</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>

--- a/Översikt NYNÄSHAMN.xlsx
+++ b/Översikt NYNÄSHAMN.xlsx
@@ -575,7 +575,7 @@
         <v>45569</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>45856</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
         <v>44935</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>45257</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45846</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>44873.62881944444</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         <v>44424</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>45866.62395833333</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>45789.56619212963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>44284</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44295</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>44980</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>45279</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>44937.60278935185</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>45211</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>44960</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>45771.43894675926</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44370</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>44271</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>45118</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>45279</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>44396</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>44621</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>45131</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>44957</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>45118</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>44965</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>44670</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>44410.60496527778</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>44398</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>44349</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>44420</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>44349</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>44621</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44285</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>44333</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>44418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>44285</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>44300</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44340.66033564815</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>44342</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>44242</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>44538</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>44424</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>44418</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>44553.79121527778</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>44553.81094907408</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>44553.81719907407</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         <v>44418</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>44455.45670138889</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>44258</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>44854</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>44349</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>45610.70392361111</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>45747.51586805555</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>45457.4562037037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>44735</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>45098</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>45344</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>44942.67042824074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>44809</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>44979</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>45118.47105324074</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>44574</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>44424</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>44396</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>45469</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>44979</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>45119</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>45791.90849537037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>45825</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
         <v>44509</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>45266</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>45266</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>45196</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>45928.88810185185</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>45928.89146990741</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>45119</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>45926.71837962963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>45930.66210648148</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>44979</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6281,7 +6281,7 @@
         <v>45935.85752314814</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>45149</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>45610.92077546296</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6452,7 +6452,7 @@
         <v>45400</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6509,7 +6509,7 @@
         <v>45737.71512731481</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>45705.43699074074</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>45855</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6680,7 +6680,7 @@
         <v>45866.45336805555</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>45952</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>45869.57434027778</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
         <v>45869.55287037037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6908,7 +6908,7 @@
         <v>45869.47163194444</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
         <v>44602.52413194445</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
         <v>45419</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7079,7 +7079,7 @@
         <v>45280.63304398148</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         <v>45610.89103009259</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>45679</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>45173</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>45173</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>45974.47630787037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>45974.71993055556</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>44395</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>45629.67396990741</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>44383.35518518519</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>45558.61607638889</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>44941</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         <v>45062</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7825,7 +7825,7 @@
         <v>44979.72369212963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
         <v>45086</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7944,7 +7944,7 @@
         <v>45573</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8001,7 +8001,7 @@
         <v>45119</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>45274</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>45747.51049768519</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>46049.83694444445</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>44789</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>45272</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>45946</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>44917</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>44396</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         <v>44396</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>46052.40635416667</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         <v>45239.73435185185</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>45469</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>45610.61542824074</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>45139</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>45140</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>45184</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>45113</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>45748.868125</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>45561.34616898148</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>45280.93269675926</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>45196</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>45196</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>44979</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>45209</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>44908</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>45419</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>45028</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>44979</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>44986.61554398148</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>44680</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>45520</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>45189</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>45664.63822916667</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>45610.69866898148</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>44410</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>45146.51179398148</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>45762.61413194444</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>45586.76025462963</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>45737</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         <v>44574</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>45779.47872685185</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>45789.57819444445</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10487,7 +10487,7 @@
         <v>45789.57309027778</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10549,7 +10549,7 @@
         <v>45789.59407407408</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>

--- a/Översikt NYNÄSHAMN.xlsx
+++ b/Översikt NYNÄSHAMN.xlsx
@@ -575,7 +575,7 @@
         <v>45569</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>45856</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
         <v>44935</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>45257</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45846</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>44873.62881944444</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         <v>44424</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>45866.62395833333</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>45789.56619212963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>44284</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44295</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>44980</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>45279</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>44937.60278935185</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>45211</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>44960</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>45771.43894675926</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44370</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>44271</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>45118</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>45279</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>44396</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>44621</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>45131</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>44957</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>45118</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>44965</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>44670</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>44410.60496527778</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>44398</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>44349</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>44420</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>44349</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>44621</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44285</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>44333</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>44418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>44285</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>44300</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44340.66033564815</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>44342</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>44242</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>44538</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>44424</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>44418</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>44553.79121527778</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>44553.81094907408</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>44553.81719907407</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         <v>44418</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>44455.45670138889</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>44258</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>44854</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>44349</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>45610.70392361111</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>45747.51586805555</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>45457.4562037037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>44735</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>45098</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>45344</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>44942.67042824074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>44809</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>44979</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>45118.47105324074</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>44574</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         <v>44424</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         <v>44396</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>45469</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>44979</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>45119</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>45791.90849537037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>45825</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
         <v>44509</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>45266</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>45266</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>45196</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>45928.88810185185</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>45928.89146990741</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>45119</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>45926.71837962963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>45930.66210648148</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>44979</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6281,7 +6281,7 @@
         <v>45935.85752314814</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>45149</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>45610.92077546296</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6452,7 +6452,7 @@
         <v>45400</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6509,7 +6509,7 @@
         <v>45737.71512731481</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>45705.43699074074</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>45855</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6680,7 +6680,7 @@
         <v>45866.45336805555</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>45952</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>45869.57434027778</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
         <v>45869.55287037037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6908,7 +6908,7 @@
         <v>45869.47163194444</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
         <v>44602.52413194445</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
         <v>45419</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7079,7 +7079,7 @@
         <v>45280.63304398148</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         <v>45610.89103009259</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>45679</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>45173</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>45173</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>45974.47630787037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>45974.71993055556</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>44395</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>45629.67396990741</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>44383.35518518519</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>45558.61607638889</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>44941</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         <v>45062</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7825,7 +7825,7 @@
         <v>44979.72369212963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
         <v>45086</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7944,7 +7944,7 @@
         <v>45573</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8001,7 +8001,7 @@
         <v>45119</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>45274</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>45747.51049768519</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>46049.83694444445</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>44789</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>45272</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>45946</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>44917</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>44396</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         <v>44396</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>46052.40635416667</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         <v>45239.73435185185</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         <v>45469</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         <v>45610.61542824074</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>45139</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>45140</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>45184</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>45113</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>45748.868125</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>45561.34616898148</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>45280.93269675926</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>45196</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>45196</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>44979</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>45209</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>44908</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>45419</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>45028</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>44979</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>44986.61554398148</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>44680</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>45520</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>45189</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>45664.63822916667</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>45610.69866898148</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>44410</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>45146.51179398148</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10130,7 +10130,7 @@
         <v>45762.61413194444</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>45586.76025462963</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>45737</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         <v>44574</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>45779.47872685185</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>45789.57819444445</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10487,7 +10487,7 @@
         <v>45789.57309027778</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10549,7 +10549,7 @@
         <v>45789.59407407408</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>

--- a/Översikt NYNÄSHAMN.xlsx
+++ b/Översikt NYNÄSHAMN.xlsx
@@ -575,7 +575,7 @@
         <v>45569</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>45856</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
         <v>44935</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>45257</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45846</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>44873.62881944444</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         <v>44424</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>45866.62395833333</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>45789.56619212963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>44284</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44295</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1604,14 +1604,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 9268-2023</t>
+          <t>A 5567-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44980</v>
+        <v>44960</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1624,16 +1624,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.9</v>
+        <v>10.1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1658,466 +1658,466 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
+          <t>Sårläka
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 5567-2023 artfynd.xlsx", "A 5567-2023")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 5567-2023 karta.png", "A 5567-2023")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 5567-2023 FSC-klagomål.docx", "A 5567-2023")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 5567-2023 FSC-klagomål mail.docx", "A 5567-2023")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 5567-2023 tillsynsbegäran.docx", "A 5567-2023")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 5567-2023 tillsynsbegäran mail.docx", "A 5567-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 1561-2023</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>44937.60278935185</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NYNÄSHAMN</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Tallticka
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 1561-2023 artfynd.xlsx", "A 1561-2023")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 1561-2023 karta.png", "A 1561-2023")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 1561-2023 FSC-klagomål.docx", "A 1561-2023")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 1561-2023 FSC-klagomål mail.docx", "A 1561-2023")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 1561-2023 tillsynsbegäran.docx", "A 1561-2023")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 1561-2023 tillsynsbegäran mail.docx", "A 1561-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 64189-2023</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45279</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NYNÄSHAMN</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Blåsippa
+Gullviva</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 64189-2023 artfynd.xlsx", "A 64189-2023")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 64189-2023 karta.png", "A 64189-2023")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 64189-2023 FSC-klagomål.docx", "A 64189-2023")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 64189-2023 FSC-klagomål mail.docx", "A 64189-2023")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 64189-2023 tillsynsbegäran.docx", "A 64189-2023")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 64189-2023 tillsynsbegäran mail.docx", "A 64189-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 9268-2023</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>44980</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NYNÄSHAMN</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
           <t>Tallticka
 Mindre märgborre</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 9268-2023 artfynd.xlsx", "A 9268-2023")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 9268-2023 karta.png", "A 9268-2023")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 9268-2023 FSC-klagomål.docx", "A 9268-2023")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 9268-2023 FSC-klagomål mail.docx", "A 9268-2023")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 9268-2023 tillsynsbegäran.docx", "A 9268-2023")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 9268-2023 tillsynsbegäran mail.docx", "A 9268-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 64189-2023</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45279</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>NYNÄSHAMN</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H14" t="n">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 19784-2025</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45771.43894675926</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NYNÄSHAMN</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="H17" t="n">
         <v>2</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>2</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Blåsippa
-Gullviva</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 64189-2023 artfynd.xlsx", "A 64189-2023")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 64189-2023 karta.png", "A 64189-2023")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 64189-2023 FSC-klagomål.docx", "A 64189-2023")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 64189-2023 FSC-klagomål mail.docx", "A 64189-2023")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 64189-2023 tillsynsbegäran.docx", "A 64189-2023")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 64189-2023 tillsynsbegäran mail.docx", "A 64189-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 1561-2023</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>44937.60278935185</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>NYNÄSHAMN</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 19784-2025 artfynd.xlsx", "A 19784-2025")</f>
+        <v/>
+      </c>
+      <c r="T17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 19784-2025 karta.png", "A 19784-2025")</f>
+        <v/>
+      </c>
+      <c r="V17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 19784-2025 FSC-klagomål.docx", "A 19784-2025")</f>
+        <v/>
+      </c>
+      <c r="W17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 19784-2025 FSC-klagomål mail.docx", "A 19784-2025")</f>
+        <v/>
+      </c>
+      <c r="X17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 19784-2025 tillsynsbegäran.docx", "A 19784-2025")</f>
+        <v/>
+      </c>
+      <c r="Y17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 19784-2025 tillsynsbegäran mail.docx", "A 19784-2025")</f>
+        <v/>
+      </c>
+      <c r="Z17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/fåglar/A 19784-2025 prioriterade fågelarter.docx", "A 19784-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A 49523-2023</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>45211</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NYNÄSHAMN</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>2</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Tallticka
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 1561-2023 artfynd.xlsx", "A 1561-2023")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 1561-2023 karta.png", "A 1561-2023")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 1561-2023 FSC-klagomål.docx", "A 1561-2023")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 1561-2023 FSC-klagomål mail.docx", "A 1561-2023")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 1561-2023 tillsynsbegäran.docx", "A 1561-2023")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 1561-2023 tillsynsbegäran mail.docx", "A 1561-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 49523-2023</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45211</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>NYNÄSHAMN</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>2</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Grönpyrola
 Västlig hakmossa</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 49523-2023 artfynd.xlsx", "A 49523-2023")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 49523-2023 karta.png", "A 49523-2023")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 49523-2023 FSC-klagomål.docx", "A 49523-2023")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 49523-2023 FSC-klagomål mail.docx", "A 49523-2023")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 49523-2023 tillsynsbegäran.docx", "A 49523-2023")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 49523-2023 tillsynsbegäran mail.docx", "A 49523-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 5567-2023</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>44960</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>NYNÄSHAMN</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Sårläka
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 5567-2023 artfynd.xlsx", "A 5567-2023")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 5567-2023 karta.png", "A 5567-2023")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 5567-2023 FSC-klagomål.docx", "A 5567-2023")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 5567-2023 FSC-klagomål mail.docx", "A 5567-2023")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 5567-2023 tillsynsbegäran.docx", "A 5567-2023")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 5567-2023 tillsynsbegäran mail.docx", "A 5567-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 19784-2025</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>45771.43894675926</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>NYNÄSHAMN</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 19784-2025 artfynd.xlsx", "A 19784-2025")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 19784-2025 karta.png", "A 19784-2025")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 19784-2025 FSC-klagomål.docx", "A 19784-2025")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 19784-2025 FSC-klagomål mail.docx", "A 19784-2025")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 19784-2025 tillsynsbegäran.docx", "A 19784-2025")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 19784-2025 tillsynsbegäran mail.docx", "A 19784-2025")</f>
-        <v/>
-      </c>
-      <c r="Z18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/fåglar/A 19784-2025 prioriterade fågelarter.docx", "A 19784-2025")</f>
         <v/>
       </c>
     </row>
@@ -2131,7 +2131,7 @@
         <v>44370</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>44271</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2299,14 +2299,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 31842-2023</t>
+          <t>A 4688-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45118</v>
+        <v>44957</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2318,23 +2318,18 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G21" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
       </c>
       <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>1</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
@@ -2348,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2358,45 +2353,49 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Lundsångare</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 31842-2023 artfynd.xlsx", "A 31842-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 4688-2023 artfynd.xlsx", "A 4688-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 31842-2023 karta.png", "A 31842-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 4688-2023 karta.png", "A 4688-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 31842-2023 FSC-klagomål.docx", "A 31842-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 4688-2023 FSC-klagomål.docx", "A 4688-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 31842-2023 FSC-klagomål mail.docx", "A 31842-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 4688-2023 FSC-klagomål mail.docx", "A 4688-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 31842-2023 tillsynsbegäran.docx", "A 31842-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 4688-2023 tillsynsbegäran.docx", "A 4688-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 31842-2023 tillsynsbegäran mail.docx", "A 31842-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 4688-2023 tillsynsbegäran mail.docx", "A 4688-2023")</f>
+        <v/>
+      </c>
+      <c r="Z21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/fåglar/A 4688-2023 prioriterade fågelarter.docx", "A 4688-2023")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 64196-2023</t>
+          <t>A 37100-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45279</v>
+        <v>44396</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2409,13 +2408,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2443,45 +2442,45 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 64196-2023 artfynd.xlsx", "A 64196-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 37100-2021 artfynd.xlsx", "A 37100-2021")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 64196-2023 karta.png", "A 64196-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 37100-2021 karta.png", "A 37100-2021")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 64196-2023 FSC-klagomål.docx", "A 64196-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 37100-2021 FSC-klagomål.docx", "A 37100-2021")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 64196-2023 FSC-klagomål mail.docx", "A 64196-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 37100-2021 FSC-klagomål mail.docx", "A 37100-2021")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 64196-2023 tillsynsbegäran.docx", "A 64196-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 37100-2021 tillsynsbegäran.docx", "A 37100-2021")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 64196-2023 tillsynsbegäran mail.docx", "A 64196-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 37100-2021 tillsynsbegäran mail.docx", "A 37100-2021")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 37100-2021</t>
+          <t>A 64196-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44396</v>
+        <v>45279</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2494,13 +2493,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2528,45 +2527,45 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 37100-2021 artfynd.xlsx", "A 37100-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 64196-2023 artfynd.xlsx", "A 64196-2023")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 37100-2021 karta.png", "A 37100-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 64196-2023 karta.png", "A 64196-2023")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 37100-2021 FSC-klagomål.docx", "A 37100-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 64196-2023 FSC-klagomål.docx", "A 64196-2023")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 37100-2021 FSC-klagomål mail.docx", "A 37100-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 64196-2023 FSC-klagomål mail.docx", "A 64196-2023")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 37100-2021 tillsynsbegäran.docx", "A 37100-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 64196-2023 tillsynsbegäran.docx", "A 64196-2023")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 37100-2021 tillsynsbegäran mail.docx", "A 37100-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 64196-2023 tillsynsbegäran mail.docx", "A 64196-2023")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 31142-2023</t>
+          <t>A 31842-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45113</v>
+        <v>45118</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2578,14 +2577,19 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>5.7</v>
+        <v>3.8</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2594,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -2603,55 +2607,55 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 31142-2023 artfynd.xlsx", "A 31142-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 31842-2023 artfynd.xlsx", "A 31842-2023")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 31142-2023 karta.png", "A 31142-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 31842-2023 karta.png", "A 31842-2023")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 31142-2023 FSC-klagomål.docx", "A 31142-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 31842-2023 FSC-klagomål.docx", "A 31842-2023")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 31142-2023 FSC-klagomål mail.docx", "A 31142-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 31842-2023 FSC-klagomål mail.docx", "A 31842-2023")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 31142-2023 tillsynsbegäran.docx", "A 31142-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 31842-2023 tillsynsbegäran.docx", "A 31842-2023")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 31142-2023 tillsynsbegäran mail.docx", "A 31142-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 31842-2023 tillsynsbegäran mail.docx", "A 31842-2023")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 10059-2022</t>
+          <t>A 31142-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44621</v>
+        <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2664,23 +2668,23 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>17</v>
+        <v>5.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
         <v>1</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
@@ -2688,55 +2692,55 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 10059-2022 artfynd.xlsx", "A 10059-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 31142-2023 artfynd.xlsx", "A 31142-2023")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 10059-2022 karta.png", "A 10059-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 31142-2023 karta.png", "A 31142-2023")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 10059-2022 FSC-klagomål.docx", "A 10059-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 31142-2023 FSC-klagomål.docx", "A 31142-2023")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 10059-2022 FSC-klagomål mail.docx", "A 10059-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 31142-2023 FSC-klagomål mail.docx", "A 31142-2023")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 10059-2022 tillsynsbegäran.docx", "A 10059-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 31142-2023 tillsynsbegäran.docx", "A 31142-2023")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 10059-2022 tillsynsbegäran mail.docx", "A 10059-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 31142-2023 tillsynsbegäran mail.docx", "A 31142-2023")</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 33528-2023</t>
+          <t>A 31828-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45131</v>
+        <v>45118</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2748,8 +2752,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2783,45 +2792,45 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>Strutbräken</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 33528-2023 artfynd.xlsx", "A 33528-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 31828-2023 artfynd.xlsx", "A 31828-2023")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 33528-2023 karta.png", "A 33528-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 31828-2023 karta.png", "A 31828-2023")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 33528-2023 FSC-klagomål.docx", "A 33528-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 31828-2023 FSC-klagomål.docx", "A 31828-2023")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 33528-2023 FSC-klagomål mail.docx", "A 33528-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 31828-2023 FSC-klagomål mail.docx", "A 31828-2023")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 33528-2023 tillsynsbegäran.docx", "A 33528-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 31828-2023 tillsynsbegäran.docx", "A 31828-2023")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 33528-2023 tillsynsbegäran mail.docx", "A 33528-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 31828-2023 tillsynsbegäran mail.docx", "A 31828-2023")</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 4688-2023</t>
+          <t>A 33528-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44957</v>
+        <v>45131</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2834,16 +2843,16 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.9</v>
+        <v>4</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>1</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2858,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -2868,49 +2877,45 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Lundsångare</t>
+          <t>Strutbräken</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 4688-2023 artfynd.xlsx", "A 4688-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 33528-2023 artfynd.xlsx", "A 33528-2023")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 4688-2023 karta.png", "A 4688-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 33528-2023 karta.png", "A 33528-2023")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 4688-2023 FSC-klagomål.docx", "A 4688-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 33528-2023 FSC-klagomål.docx", "A 33528-2023")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 4688-2023 FSC-klagomål mail.docx", "A 4688-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 33528-2023 FSC-klagomål mail.docx", "A 33528-2023")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 4688-2023 tillsynsbegäran.docx", "A 4688-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 33528-2023 tillsynsbegäran.docx", "A 33528-2023")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 4688-2023 tillsynsbegäran mail.docx", "A 4688-2023")</f>
-        <v/>
-      </c>
-      <c r="Z27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/fåglar/A 4688-2023 prioriterade fågelarter.docx", "A 4688-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 33528-2023 tillsynsbegäran mail.docx", "A 33528-2023")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 31828-2023</t>
+          <t>A 6435-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45118</v>
+        <v>44965</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2922,23 +2927,18 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G28" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
         <v>1</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -2962,45 +2962,45 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 31828-2023 artfynd.xlsx", "A 31828-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 6435-2023 artfynd.xlsx", "A 6435-2023")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 31828-2023 karta.png", "A 31828-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 6435-2023 karta.png", "A 6435-2023")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 31828-2023 FSC-klagomål.docx", "A 31828-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 6435-2023 FSC-klagomål.docx", "A 6435-2023")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 31828-2023 FSC-klagomål mail.docx", "A 31828-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 6435-2023 FSC-klagomål mail.docx", "A 6435-2023")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 31828-2023 tillsynsbegäran.docx", "A 31828-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 6435-2023 tillsynsbegäran.docx", "A 6435-2023")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 31828-2023 tillsynsbegäran mail.docx", "A 31828-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 6435-2023 tillsynsbegäran mail.docx", "A 6435-2023")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 6435-2023</t>
+          <t>A 10059-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44965</v>
+        <v>44621</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3013,16 +3013,16 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.8</v>
+        <v>17</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -3047,31 +3047,31 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 6435-2023 artfynd.xlsx", "A 6435-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 10059-2022 artfynd.xlsx", "A 10059-2022")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 6435-2023 karta.png", "A 6435-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 10059-2022 karta.png", "A 10059-2022")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 6435-2023 FSC-klagomål.docx", "A 6435-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 10059-2022 FSC-klagomål.docx", "A 10059-2022")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 6435-2023 FSC-klagomål mail.docx", "A 6435-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 10059-2022 FSC-klagomål mail.docx", "A 10059-2022")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 6435-2023 tillsynsbegäran.docx", "A 6435-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 10059-2022 tillsynsbegäran.docx", "A 10059-2022")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 6435-2023 tillsynsbegäran mail.docx", "A 6435-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 10059-2022 tillsynsbegäran mail.docx", "A 10059-2022")</f>
         <v/>
       </c>
     </row>
@@ -3085,7 +3085,7 @@
         <v>44670</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>44410.60496527778</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3220,14 +3220,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 37422-2021</t>
+          <t>A 26757-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44398</v>
+        <v>44349</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>25.8</v>
+        <v>4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3277,14 +3277,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 26757-2021</t>
+          <t>A 40753-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44349</v>
+        <v>44420</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3296,8 +3296,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>4</v>
+        <v>6.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3334,14 +3339,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 40753-2021</t>
+          <t>A 26767-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44420</v>
+        <v>44349</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3353,13 +3358,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>6.2</v>
+        <v>2.3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3396,14 +3396,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 26767-2021</t>
+          <t>A 37422-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44349</v>
+        <v>44398</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.3</v>
+        <v>25.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3460,7 +3460,7 @@
         <v>44621</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44285</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>44333</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>44418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>44285</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>44300</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3810,14 +3810,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 24805-2021</t>
+          <t>A 25334-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44340.66033564815</v>
+        <v>44342</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3872,14 +3872,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 25334-2021</t>
+          <t>A 24805-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44342</v>
+        <v>44340.66033564815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3941,7 +3941,7 @@
         <v>44242</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>44538</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>44424</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>44418</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>44553.79121527778</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>44553.81094907408</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>44553.81719907407</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         <v>44418</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>44455.45670138889</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>44258</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>44854</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4581,14 +4581,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 26750-2021</t>
+          <t>A 7457-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44349</v>
+        <v>45705.43699074074</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4638,14 +4638,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 52911-2024</t>
+          <t>A 37491-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45610.70392361111</v>
+        <v>44809</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.8</v>
+        <v>4.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4695,14 +4695,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 15465-2025</t>
+          <t>A 17991-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45747.51586805555</v>
+        <v>45419</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4752,14 +4752,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 24288-2024</t>
+          <t>A 26750-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45457.4562037037</v>
+        <v>44349</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4809,14 +4809,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 26190-2022</t>
+          <t>A 37097-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44735</v>
+        <v>44395</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4866,14 +4866,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 27748-2023</t>
+          <t>A 26501-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45098</v>
+        <v>45469</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4923,14 +4923,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 7180-2024</t>
+          <t>A 8932-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45344</v>
+        <v>44979</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4980,14 +4980,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 2367-2023</t>
+          <t>A 38771-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44942.67042824074</v>
+        <v>44410</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5037,14 +5037,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 37491-2022</t>
+          <t>A 9020-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44809</v>
+        <v>44979</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5056,8 +5056,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>4.3</v>
+        <v>8.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5094,14 +5099,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 8932-2023</t>
+          <t>A 6775-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44979</v>
+        <v>44602.52413194445</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5114,7 +5119,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.3</v>
+        <v>4.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5151,14 +5156,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 31808-2023</t>
+          <t>A 13947-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45118.47105324074</v>
+        <v>45737</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5170,13 +5175,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5213,14 +5213,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 1658-2022</t>
+          <t>A 29811-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44574</v>
+        <v>45825</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5234,11 +5234,11 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.5</v>
+        <v>4.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5275,14 +5275,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 41281-2021</t>
+          <t>A 8932-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44424</v>
+        <v>44979</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5332,14 +5332,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 37098-2021</t>
+          <t>A 1658-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44396</v>
+        <v>44574</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5351,8 +5351,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>12.9</v>
+        <v>2.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5389,14 +5394,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 26501-2024</t>
+          <t>A 15176-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45469</v>
+        <v>45400</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5409,7 +5414,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5446,14 +5451,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 9020-2023</t>
+          <t>A 47258-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44979</v>
+        <v>45586.76025462963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5467,11 +5472,11 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>8.1</v>
+        <v>1.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5508,14 +5513,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 32092-2023</t>
+          <t>A 52953-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45119</v>
+        <v>45610.92077546296</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5527,13 +5532,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>12.4</v>
+        <v>6.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5570,14 +5570,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 23397-2025</t>
+          <t>A 13945-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45791.90849537037</v>
+        <v>45737.71512731481</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>12.7</v>
+        <v>1.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5627,14 +5627,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 29811-2025</t>
+          <t>A 25175-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45825</v>
+        <v>45086</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5646,13 +5646,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>4.7</v>
+        <v>1.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5689,14 +5684,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 63931-2021</t>
+          <t>A 34385-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44509</v>
+        <v>45139</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5708,13 +5703,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5751,14 +5741,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 62013-2023</t>
+          <t>A 52859-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45266</v>
+        <v>45610.61542824074</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5771,7 +5761,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5808,14 +5798,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 62038-2023</t>
+          <t>A 23397-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45266</v>
+        <v>45791.90849537037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5828,7 +5818,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>5.6</v>
+        <v>12.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5865,14 +5855,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 47128-2023</t>
+          <t>A 63931-2021</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45196</v>
+        <v>44509</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5884,8 +5874,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5922,14 +5917,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 46856-2025</t>
+          <t>A 62634-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45928.88810185185</v>
+        <v>44917</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5942,7 +5937,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.2</v>
+        <v>15.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5979,14 +5974,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 46857-2025</t>
+          <t>A 35483-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45928.89146990741</v>
+        <v>45855</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5999,7 +5994,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.4</v>
+        <v>7.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6036,14 +6031,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 32074-2023</t>
+          <t>A 24288-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45119</v>
+        <v>45457.4562037037</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6055,13 +6050,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>13.1</v>
+        <v>1.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6098,14 +6088,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 46818-2025</t>
+          <t>A 8939-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45926.71837962963</v>
+        <v>44979</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6118,7 +6108,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>9.4</v>
+        <v>2.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6155,14 +6145,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 47463-2025</t>
+          <t>A 52911-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45930.66210648148</v>
+        <v>45610.70392361111</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6175,7 +6165,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6212,14 +6202,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 9017-2023</t>
+          <t>A 36082-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44979</v>
+        <v>45866.45336805555</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6231,13 +6221,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6274,14 +6259,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 48456-2025</t>
+          <t>A 36468-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45935.85752314814</v>
+        <v>45869.47163194444</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6331,14 +6316,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 36052-2023</t>
+          <t>A 36509-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45149</v>
+        <v>45869.57434027778</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6351,7 +6336,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6388,14 +6373,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 52953-2024</t>
+          <t>A 36496-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45610.92077546296</v>
+        <v>45869.55287037037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6408,7 +6393,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6445,14 +6430,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 15176-2024</t>
+          <t>A 57375-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45400</v>
+        <v>45629.67396990741</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6465,7 +6450,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6502,14 +6487,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 13945-2025</t>
+          <t>A 47089-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45737.71512731481</v>
+        <v>45196</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6522,7 +6507,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6559,14 +6544,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 7457-2025</t>
+          <t>A 47093-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45705.43699074074</v>
+        <v>45196</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6579,7 +6564,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>7.5</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6616,14 +6601,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 35483-2025</t>
+          <t>A 52950-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45855</v>
+        <v>45610.89103009259</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6636,7 +6621,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>7.5</v>
+        <v>5.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6673,14 +6658,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 36082-2025</t>
+          <t>A 15839-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45866.45336805555</v>
+        <v>45748.868125</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6693,7 +6678,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6730,14 +6715,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 51954-2025</t>
+          <t>A 34818-2021</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45952</v>
+        <v>44383.35518518519</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6750,7 +6735,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6787,14 +6772,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 36509-2025</t>
+          <t>A 46818-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45869.57434027778</v>
+        <v>45926.71837962963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6807,7 +6792,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.1</v>
+        <v>9.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6844,14 +6829,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 36496-2025</t>
+          <t>A 18411-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45869.55287037037</v>
+        <v>45762.61413194444</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6864,7 +6849,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>5.3</v>
+        <v>11</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6901,14 +6886,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 36468-2025</t>
+          <t>A 47463-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45869.47163194444</v>
+        <v>45930.66210648148</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6921,7 +6906,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6958,14 +6943,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 6775-2022</t>
+          <t>A 46856-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44602.52413194445</v>
+        <v>45928.88810185185</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6978,7 +6963,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>4.7</v>
+        <v>2.2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7015,14 +7000,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 17990-2024</t>
+          <t>A 46857-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45419</v>
+        <v>45928.89146990741</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7035,7 +7020,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7072,14 +7057,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 64411-2023</t>
+          <t>A 30910-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45280.63304398148</v>
+        <v>45113</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7092,7 +7077,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>5.6</v>
+        <v>1.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7129,14 +7114,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 52950-2024</t>
+          <t>A 48456-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45610.89103009259</v>
+        <v>45935.85752314814</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7149,7 +7134,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>5.3</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7186,14 +7171,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 3341-2025</t>
+          <t>A 37103-2021</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45679</v>
+        <v>44396</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7205,13 +7190,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>1.2</v>
+        <v>12.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7248,14 +7228,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 41677-2023</t>
+          <t>A 37104-2021</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45173</v>
+        <v>44396</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7268,7 +7248,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>6.2</v>
+        <v>3.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7305,14 +7285,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 41680-2023</t>
+          <t>A 51954-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45173</v>
+        <v>45952</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7325,7 +7305,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>12.3</v>
+        <v>0.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7362,14 +7342,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 56210-2025</t>
+          <t>A 34660-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45974.47630787037</v>
+        <v>45140</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7382,7 +7362,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7419,14 +7399,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 56385-2025</t>
+          <t>A 31808-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45974.71993055556</v>
+        <v>45118.47105324074</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7438,8 +7418,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>6.1</v>
+        <v>4.3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7476,14 +7461,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 37097-2021</t>
+          <t>A 9062-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44395</v>
+        <v>44979.72369212963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7495,8 +7480,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7533,14 +7523,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 57375-2024</t>
+          <t>A 47128-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45629.67396990741</v>
+        <v>45196</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7553,7 +7543,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7590,14 +7580,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 34818-2021</t>
+          <t>A 2367-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44383.35518518519</v>
+        <v>44942.67042824074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7610,7 +7600,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7647,14 +7637,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 40895-2024</t>
+          <t>A 56210-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45558.61607638889</v>
+        <v>45974.47630787037</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7667,7 +7657,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7704,14 +7694,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 2170-2023</t>
+          <t>A 56385-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44941</v>
+        <v>45974.71993055556</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7724,7 +7714,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.1</v>
+        <v>6.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7761,14 +7751,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 21192-2023</t>
+          <t>A 26505-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45062</v>
+        <v>45469</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7781,7 +7771,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7818,14 +7808,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 9062-2023</t>
+          <t>A 17990-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44979.72369212963</v>
+        <v>45419</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7837,13 +7827,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>3.4</v>
+        <v>0.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7880,14 +7865,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 25175-2023</t>
+          <t>A 32092-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45086</v>
+        <v>45119</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7899,8 +7884,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>1.4</v>
+        <v>12.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7937,14 +7927,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 44206-2024</t>
+          <t>A 40895-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45573</v>
+        <v>45558.61607638889</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7957,7 +7947,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.8</v>
+        <v>3.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8001,7 +7991,7 @@
         <v>45119</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8056,14 +8046,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 63463-2023</t>
+          <t>A 21192-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45274</v>
+        <v>45062</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8076,7 +8066,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.8</v>
+        <v>4.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8113,14 +8103,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 15460-2025</t>
+          <t>A 36052-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45747.51049768519</v>
+        <v>45149</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8133,7 +8123,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8170,14 +8160,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 5233-2026</t>
+          <t>A 48978-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>46049.83694444445</v>
+        <v>45209</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8189,8 +8179,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>9</v>
+        <v>2.3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8227,14 +8222,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 33667-2022</t>
+          <t>A 41680-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44789</v>
+        <v>45173</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8247,7 +8242,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3.3</v>
+        <v>12.3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8284,14 +8279,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 62878-2023</t>
+          <t>A 26190-2022</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45272</v>
+        <v>44735</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8304,7 +8299,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8341,14 +8336,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 50956-2025</t>
+          <t>A 63463-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45946</v>
+        <v>45274</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8361,7 +8356,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8398,14 +8393,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 62634-2022</t>
+          <t>A 64494-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44917</v>
+        <v>45280.93269675926</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8418,7 +8413,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>15.8</v>
+        <v>2.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8455,14 +8450,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 37103-2021</t>
+          <t>A 5233-2026</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44396</v>
+        <v>46049.83694444445</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8475,7 +8470,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>12.4</v>
+        <v>9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8512,14 +8507,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 37104-2021</t>
+          <t>A 62013-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44396</v>
+        <v>45266</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8532,7 +8527,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8569,14 +8564,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 5884-2026</t>
+          <t>A 55871-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>46052.40635416667</v>
+        <v>45239.73435185185</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8590,11 +8585,11 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>4.1</v>
+        <v>5.2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8631,14 +8626,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 55871-2023</t>
+          <t>A 50956-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45239.73435185185</v>
+        <v>45946</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8650,13 +8645,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>5.2</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8693,14 +8683,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 26505-2024</t>
+          <t>A 5884-2026</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45469</v>
+        <v>46052.40635416667</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8712,8 +8702,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8750,14 +8745,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 52859-2024</t>
+          <t>A 27748-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45610.61542824074</v>
+        <v>45098</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8770,7 +8765,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8807,14 +8802,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 34385-2023</t>
+          <t>A 62038-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45139</v>
+        <v>45266</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8827,7 +8822,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.5</v>
+        <v>5.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8864,14 +8859,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 34660-2023</t>
+          <t>A 7180-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45140</v>
+        <v>45344</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8884,7 +8879,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8921,14 +8916,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 44624-2023</t>
+          <t>A 41677-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45184</v>
+        <v>45173</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8941,7 +8936,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8978,14 +8973,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 30910-2023</t>
+          <t>A 62878-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45113</v>
+        <v>45272</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8998,7 +8993,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9035,14 +9030,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 15839-2025</t>
+          <t>A 17634-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45748.868125</v>
+        <v>44680</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9055,7 +9050,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9092,14 +9087,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 41767-2024</t>
+          <t>A 44619-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45561.34616898148</v>
+        <v>45189</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9112,7 +9107,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.9</v>
+        <v>7.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9149,14 +9144,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 64494-2023</t>
+          <t>A 64411-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45280.93269675926</v>
+        <v>45280.63304398148</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9169,7 +9164,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.7</v>
+        <v>5.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9206,14 +9201,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 47089-2023</t>
+          <t>A 44206-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45196</v>
+        <v>45573</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9263,14 +9258,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 47093-2023</t>
+          <t>A 52910-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45196</v>
+        <v>45610.69866898148</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9283,7 +9278,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9320,14 +9315,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 8939-2023</t>
+          <t>A 44624-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44979</v>
+        <v>45184</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9340,7 +9335,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.7</v>
+        <v>6.8</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9377,14 +9372,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 48978-2023</t>
+          <t>A 9017-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45209</v>
+        <v>44979</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9398,11 +9393,11 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9439,14 +9434,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 60977-2022</t>
+          <t>A 32074-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44908</v>
+        <v>45119</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9458,8 +9453,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G139" t="n">
-        <v>3</v>
+        <v>13.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9496,14 +9496,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 17991-2024</t>
+          <t>A 33787-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45419</v>
+        <v>45520</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.3</v>
+        <v>2.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9553,14 +9553,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 16793-2023</t>
+          <t>A 41281-2021</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45028</v>
+        <v>44424</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9610,14 +9610,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 8932-2023</t>
+          <t>A 35356-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44979</v>
+        <v>45146.51179398148</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9630,7 +9630,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9667,14 +9667,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 10224-2023</t>
+          <t>A 33667-2022</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44986.61554398148</v>
+        <v>44789</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9724,14 +9724,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 17634-2022</t>
+          <t>A 15460-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44680</v>
+        <v>45747.51049768519</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9781,14 +9781,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 33787-2024</t>
+          <t>A 16793-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45520</v>
+        <v>45028</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9838,14 +9838,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 44619-2023</t>
+          <t>A 10224-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45189</v>
+        <v>44986.61554398148</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>7.6</v>
+        <v>1.5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9902,7 +9902,7 @@
         <v>45664.63822916667</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9952,14 +9952,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 52910-2024</t>
+          <t>A 60977-2022</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45610.69866898148</v>
+        <v>44908</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10009,14 +10009,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 38771-2021</t>
+          <t>A 2170-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44410</v>
+        <v>44941</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.4</v>
+        <v>3.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10066,14 +10066,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 35356-2023</t>
+          <t>A 41767-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45146.51179398148</v>
+        <v>45561.34616898148</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10086,7 +10086,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10123,14 +10123,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 18411-2025</t>
+          <t>A 15465-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45762.61413194444</v>
+        <v>45747.51586805555</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>11</v>
+        <v>1.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10180,14 +10180,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 47258-2024</t>
+          <t>A 3341-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45586.76025462963</v>
+        <v>45679</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10201,11 +10201,11 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10242,14 +10242,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 13947-2025</t>
+          <t>A 1658-2022</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45737</v>
+        <v>44574</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10261,8 +10261,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G153" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10299,14 +10304,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 1658-2022</t>
+          <t>A 21202-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44574</v>
+        <v>45779.47872685185</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10318,13 +10323,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G154" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10361,14 +10361,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 21202-2025</t>
+          <t>A 22721-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45779.47872685185</v>
+        <v>45789.57309027778</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10380,8 +10380,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G155" t="n">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10418,14 +10423,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 22730-2025</t>
+          <t>A 22740-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45789.57819444445</v>
+        <v>45789.59407407408</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10443,7 +10448,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3.8</v>
+        <v>0.8</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10480,14 +10485,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 22721-2025</t>
+          <t>A 22730-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45789.57309027778</v>
+        <v>45789.57819444445</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10505,7 +10510,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10542,14 +10547,14 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 22740-2025</t>
+          <t>A 37098-2021</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45789.59407407408</v>
+        <v>44396</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10561,13 +10566,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G158" t="n">
-        <v>0.8</v>
+        <v>12.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>

--- a/Översikt NYNÄSHAMN.xlsx
+++ b/Översikt NYNÄSHAMN.xlsx
@@ -575,7 +575,7 @@
         <v>45569</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>45856</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
         <v>44935</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>45257</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45846</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>44873.62881944444</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         <v>44424</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1243,14 +1243,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 36131-2025</t>
+          <t>A 22716-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45866.62395833333</v>
+        <v>45789.56619212963</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,17 +1262,22 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G9" t="n">
-        <v>5.2</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1287,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1296,140 +1301,135 @@
         <v>3</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Björksplintborre
+Stekelbock
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 22716-2025 artfynd.xlsx", "A 22716-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 22716-2025 karta.png", "A 22716-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 22716-2025 FSC-klagomål.docx", "A 22716-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 22716-2025 FSC-klagomål mail.docx", "A 22716-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 22716-2025 tillsynsbegäran.docx", "A 22716-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 22716-2025 tillsynsbegäran mail.docx", "A 22716-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 36131-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45866.62395833333</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NYNÄSHAMN</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Vedskivlav
 Fällmossa
 Blåsippa</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 36131-2025 artfynd.xlsx", "A 36131-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 36131-2025 karta.png", "A 36131-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 36131-2025 FSC-klagomål.docx", "A 36131-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 36131-2025 FSC-klagomål mail.docx", "A 36131-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 36131-2025 tillsynsbegäran.docx", "A 36131-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 36131-2025 tillsynsbegäran mail.docx", "A 36131-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 22716-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45789.56619212963</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>NYNÄSHAMN</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>3</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Björksplintborre
-Stekelbock
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 22716-2025 artfynd.xlsx", "A 22716-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 22716-2025 karta.png", "A 22716-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 22716-2025 FSC-klagomål.docx", "A 22716-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 22716-2025 FSC-klagomål mail.docx", "A 22716-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 22716-2025 tillsynsbegäran.docx", "A 22716-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 22716-2025 tillsynsbegäran mail.docx", "A 22716-2025")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 15314-2021</t>
+          <t>A 16869-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44284</v>
+        <v>44295</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1447,16 +1447,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1471,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1481,137 +1481,137 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
+          <t>Grön sköldmossa
+Kattfotslav</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 16869-2021 artfynd.xlsx", "A 16869-2021")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 16869-2021 karta.png", "A 16869-2021")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 16869-2021 FSC-klagomål.docx", "A 16869-2021")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 16869-2021 FSC-klagomål mail.docx", "A 16869-2021")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 16869-2021 tillsynsbegäran.docx", "A 16869-2021")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 16869-2021 tillsynsbegäran mail.docx", "A 16869-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 15314-2021</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>44284</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NYNÄSHAMN</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>9</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
           <t>Granticka
 Grön sköldmossa</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 15314-2021 artfynd.xlsx", "A 15314-2021")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 15314-2021 karta.png", "A 15314-2021")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 15314-2021 FSC-klagomål.docx", "A 15314-2021")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 15314-2021 FSC-klagomål mail.docx", "A 15314-2021")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 15314-2021 tillsynsbegäran.docx", "A 15314-2021")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 15314-2021 tillsynsbegäran mail.docx", "A 15314-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 16869-2021</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>44295</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>NYNÄSHAMN</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Grön sköldmossa
-Kattfotslav</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 16869-2021 artfynd.xlsx", "A 16869-2021")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 16869-2021 karta.png", "A 16869-2021")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 16869-2021 FSC-klagomål.docx", "A 16869-2021")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 16869-2021 FSC-klagomål mail.docx", "A 16869-2021")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 16869-2021 tillsynsbegäran.docx", "A 16869-2021")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 16869-2021 tillsynsbegäran mail.docx", "A 16869-2021")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 5567-2023</t>
+          <t>A 9268-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44960</v>
+        <v>44980</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1624,16 +1624,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>10.1</v>
+        <v>4.9</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1658,466 +1658,466 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
+          <t>Tallticka
+Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 9268-2023 artfynd.xlsx", "A 9268-2023")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 9268-2023 karta.png", "A 9268-2023")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 9268-2023 FSC-klagomål.docx", "A 9268-2023")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 9268-2023 FSC-klagomål mail.docx", "A 9268-2023")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 9268-2023 tillsynsbegäran.docx", "A 9268-2023")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 9268-2023 tillsynsbegäran mail.docx", "A 9268-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 64189-2023</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45279</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NYNÄSHAMN</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Blåsippa
+Gullviva</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 64189-2023 artfynd.xlsx", "A 64189-2023")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 64189-2023 karta.png", "A 64189-2023")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 64189-2023 FSC-klagomål.docx", "A 64189-2023")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 64189-2023 FSC-klagomål mail.docx", "A 64189-2023")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 64189-2023 tillsynsbegäran.docx", "A 64189-2023")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 64189-2023 tillsynsbegäran mail.docx", "A 64189-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 1561-2023</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>44937.60278935185</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NYNÄSHAMN</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Tallticka
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 1561-2023 artfynd.xlsx", "A 1561-2023")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 1561-2023 karta.png", "A 1561-2023")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 1561-2023 FSC-klagomål.docx", "A 1561-2023")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 1561-2023 FSC-klagomål mail.docx", "A 1561-2023")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 1561-2023 tillsynsbegäran.docx", "A 1561-2023")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 1561-2023 tillsynsbegäran mail.docx", "A 1561-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 49523-2023</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45211</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NYNÄSHAMN</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Grönpyrola
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 49523-2023 artfynd.xlsx", "A 49523-2023")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 49523-2023 karta.png", "A 49523-2023")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 49523-2023 FSC-klagomål.docx", "A 49523-2023")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 49523-2023 FSC-klagomål mail.docx", "A 49523-2023")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 49523-2023 tillsynsbegäran.docx", "A 49523-2023")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 49523-2023 tillsynsbegäran mail.docx", "A 49523-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 5567-2023</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>44960</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NYNÄSHAMN</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
           <t>Sårläka
 Blåsippa</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 5567-2023 artfynd.xlsx", "A 5567-2023")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 5567-2023 karta.png", "A 5567-2023")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 5567-2023 FSC-klagomål.docx", "A 5567-2023")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 5567-2023 FSC-klagomål mail.docx", "A 5567-2023")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 5567-2023 tillsynsbegäran.docx", "A 5567-2023")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 5567-2023 tillsynsbegäran mail.docx", "A 5567-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 1561-2023</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>44937.60278935185</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>NYNÄSHAMN</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H14" t="n">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A 19784-2025</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>45771.43894675926</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NYNÄSHAMN</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>1</v>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>2</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Tallticka
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 1561-2023 artfynd.xlsx", "A 1561-2023")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 1561-2023 karta.png", "A 1561-2023")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 1561-2023 FSC-klagomål.docx", "A 1561-2023")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 1561-2023 FSC-klagomål mail.docx", "A 1561-2023")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 1561-2023 tillsynsbegäran.docx", "A 1561-2023")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 1561-2023 tillsynsbegäran mail.docx", "A 1561-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 64189-2023</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45279</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>NYNÄSHAMN</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Blåsippa
-Gullviva</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 64189-2023 artfynd.xlsx", "A 64189-2023")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 64189-2023 karta.png", "A 64189-2023")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 64189-2023 FSC-klagomål.docx", "A 64189-2023")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 64189-2023 FSC-klagomål mail.docx", "A 64189-2023")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 64189-2023 tillsynsbegäran.docx", "A 64189-2023")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 64189-2023 tillsynsbegäran mail.docx", "A 64189-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 9268-2023</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>44980</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>NYNÄSHAMN</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Tallticka
-Mindre märgborre</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 9268-2023 artfynd.xlsx", "A 9268-2023")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 9268-2023 karta.png", "A 9268-2023")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 9268-2023 FSC-klagomål.docx", "A 9268-2023")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 9268-2023 FSC-klagomål mail.docx", "A 9268-2023")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 9268-2023 tillsynsbegäran.docx", "A 9268-2023")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 9268-2023 tillsynsbegäran mail.docx", "A 9268-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 19784-2025</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45771.43894675926</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>NYNÄSHAMN</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Revlummer</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 19784-2025 artfynd.xlsx", "A 19784-2025")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 19784-2025 karta.png", "A 19784-2025")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 19784-2025 FSC-klagomål.docx", "A 19784-2025")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 19784-2025 FSC-klagomål mail.docx", "A 19784-2025")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 19784-2025 tillsynsbegäran.docx", "A 19784-2025")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 19784-2025 tillsynsbegäran mail.docx", "A 19784-2025")</f>
         <v/>
       </c>
-      <c r="Z17">
+      <c r="Z18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/fåglar/A 19784-2025 prioriterade fågelarter.docx", "A 19784-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 49523-2023</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>45211</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>NYNÄSHAMN</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Grönpyrola
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 49523-2023 artfynd.xlsx", "A 49523-2023")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 49523-2023 karta.png", "A 49523-2023")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 49523-2023 FSC-klagomål.docx", "A 49523-2023")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 49523-2023 FSC-klagomål mail.docx", "A 49523-2023")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 49523-2023 tillsynsbegäran.docx", "A 49523-2023")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 49523-2023 tillsynsbegäran mail.docx", "A 49523-2023")</f>
         <v/>
       </c>
     </row>
@@ -2131,7 +2131,7 @@
         <v>44370</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>44271</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2299,14 +2299,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 4688-2023</t>
+          <t>A 16309-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44957</v>
+        <v>44670</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.9</v>
+        <v>7.7</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -2328,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2343,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2353,49 +2353,45 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Lundsångare</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 4688-2023 artfynd.xlsx", "A 4688-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 16309-2022 artfynd.xlsx", "A 16309-2022")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 4688-2023 karta.png", "A 4688-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 16309-2022 karta.png", "A 16309-2022")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 4688-2023 FSC-klagomål.docx", "A 4688-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 16309-2022 FSC-klagomål.docx", "A 16309-2022")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 4688-2023 FSC-klagomål mail.docx", "A 4688-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 16309-2022 FSC-klagomål mail.docx", "A 16309-2022")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 4688-2023 tillsynsbegäran.docx", "A 4688-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 16309-2022 tillsynsbegäran.docx", "A 16309-2022")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 4688-2023 tillsynsbegäran mail.docx", "A 4688-2023")</f>
-        <v/>
-      </c>
-      <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/fåglar/A 4688-2023 prioriterade fågelarter.docx", "A 4688-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 16309-2022 tillsynsbegäran mail.docx", "A 16309-2022")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 37100-2021</t>
+          <t>A 31842-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44396</v>
+        <v>45118</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2407,8 +2403,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G22" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -2446,27 +2447,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 37100-2021 artfynd.xlsx", "A 37100-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 31842-2023 artfynd.xlsx", "A 31842-2023")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 37100-2021 karta.png", "A 37100-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 31842-2023 karta.png", "A 31842-2023")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 37100-2021 FSC-klagomål.docx", "A 37100-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 31842-2023 FSC-klagomål.docx", "A 31842-2023")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 37100-2021 FSC-klagomål mail.docx", "A 37100-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 31842-2023 FSC-klagomål mail.docx", "A 31842-2023")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 37100-2021 tillsynsbegäran.docx", "A 37100-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 31842-2023 tillsynsbegäran.docx", "A 31842-2023")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 37100-2021 tillsynsbegäran mail.docx", "A 37100-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 31842-2023 tillsynsbegäran mail.docx", "A 31842-2023")</f>
         <v/>
       </c>
     </row>
@@ -2480,7 +2481,7 @@
         <v>45279</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2558,14 +2559,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 31842-2023</t>
+          <t>A 37100-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45118</v>
+        <v>44396</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2577,13 +2578,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G24" t="n">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -2621,27 +2617,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 31842-2023 artfynd.xlsx", "A 31842-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 37100-2021 artfynd.xlsx", "A 37100-2021")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 31842-2023 karta.png", "A 31842-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 37100-2021 karta.png", "A 37100-2021")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 31842-2023 FSC-klagomål.docx", "A 31842-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 37100-2021 FSC-klagomål.docx", "A 37100-2021")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 31842-2023 FSC-klagomål mail.docx", "A 31842-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 37100-2021 FSC-klagomål mail.docx", "A 37100-2021")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 31842-2023 tillsynsbegäran.docx", "A 31842-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 37100-2021 tillsynsbegäran.docx", "A 37100-2021")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 31842-2023 tillsynsbegäran mail.docx", "A 31842-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 37100-2021 tillsynsbegäran mail.docx", "A 37100-2021")</f>
         <v/>
       </c>
     </row>
@@ -2655,7 +2651,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2733,14 +2729,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 31828-2023</t>
+          <t>A 10059-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45118</v>
+        <v>44621</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2752,13 +2748,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G26" t="n">
-        <v>2.7</v>
+        <v>17</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2792,31 +2783,31 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 31828-2023 artfynd.xlsx", "A 31828-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 10059-2022 artfynd.xlsx", "A 10059-2022")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 31828-2023 karta.png", "A 31828-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 10059-2022 karta.png", "A 10059-2022")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 31828-2023 FSC-klagomål.docx", "A 31828-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 10059-2022 FSC-klagomål.docx", "A 10059-2022")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 31828-2023 FSC-klagomål mail.docx", "A 31828-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 10059-2022 FSC-klagomål mail.docx", "A 10059-2022")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 31828-2023 tillsynsbegäran.docx", "A 31828-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 10059-2022 tillsynsbegäran.docx", "A 10059-2022")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 31828-2023 tillsynsbegäran mail.docx", "A 31828-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 10059-2022 tillsynsbegäran mail.docx", "A 10059-2022")</f>
         <v/>
       </c>
     </row>
@@ -2830,7 +2821,7 @@
         <v>45131</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2908,14 +2899,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 6435-2023</t>
+          <t>A 4688-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44965</v>
+        <v>44957</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2928,10 +2919,10 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2962,45 +2953,49 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Lundsångare</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 6435-2023 artfynd.xlsx", "A 6435-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 4688-2023 artfynd.xlsx", "A 4688-2023")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 6435-2023 karta.png", "A 6435-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 4688-2023 karta.png", "A 4688-2023")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 6435-2023 FSC-klagomål.docx", "A 6435-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 4688-2023 FSC-klagomål.docx", "A 4688-2023")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 6435-2023 FSC-klagomål mail.docx", "A 6435-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 4688-2023 FSC-klagomål mail.docx", "A 4688-2023")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 6435-2023 tillsynsbegäran.docx", "A 6435-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 4688-2023 tillsynsbegäran.docx", "A 4688-2023")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 6435-2023 tillsynsbegäran mail.docx", "A 6435-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 4688-2023 tillsynsbegäran mail.docx", "A 4688-2023")</f>
+        <v/>
+      </c>
+      <c r="Z28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/fåglar/A 4688-2023 prioriterade fågelarter.docx", "A 4688-2023")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 10059-2022</t>
+          <t>A 31828-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44621</v>
+        <v>45118</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3012,8 +3007,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>17</v>
+        <v>2.7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -3047,45 +3047,45 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 10059-2022 artfynd.xlsx", "A 10059-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 31828-2023 artfynd.xlsx", "A 31828-2023")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 10059-2022 karta.png", "A 10059-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 31828-2023 karta.png", "A 31828-2023")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 10059-2022 FSC-klagomål.docx", "A 10059-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 31828-2023 FSC-klagomål.docx", "A 31828-2023")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 10059-2022 FSC-klagomål mail.docx", "A 10059-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 31828-2023 FSC-klagomål mail.docx", "A 31828-2023")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 10059-2022 tillsynsbegäran.docx", "A 10059-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 31828-2023 tillsynsbegäran.docx", "A 31828-2023")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 10059-2022 tillsynsbegäran mail.docx", "A 10059-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 31828-2023 tillsynsbegäran mail.docx", "A 31828-2023")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 16309-2022</t>
+          <t>A 6435-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44670</v>
+        <v>44965</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3098,17 +3098,17 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>7.7</v>
+        <v>1.8</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>1</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -3132,31 +3132,31 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 16309-2022 artfynd.xlsx", "A 16309-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 6435-2023 artfynd.xlsx", "A 6435-2023")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 16309-2022 karta.png", "A 16309-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 6435-2023 karta.png", "A 6435-2023")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 16309-2022 FSC-klagomål.docx", "A 16309-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 6435-2023 FSC-klagomål.docx", "A 6435-2023")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 16309-2022 FSC-klagomål mail.docx", "A 16309-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 6435-2023 FSC-klagomål mail.docx", "A 6435-2023")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 16309-2022 tillsynsbegäran.docx", "A 16309-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 6435-2023 tillsynsbegäran.docx", "A 6435-2023")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 16309-2022 tillsynsbegäran mail.docx", "A 16309-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 6435-2023 tillsynsbegäran mail.docx", "A 6435-2023")</f>
         <v/>
       </c>
     </row>
@@ -3170,7 +3170,7 @@
         <v>44410.60496527778</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3220,14 +3220,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 26757-2021</t>
+          <t>A 37422-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44349</v>
+        <v>44398</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4</v>
+        <v>25.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3277,14 +3277,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 40753-2021</t>
+          <t>A 26757-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44420</v>
+        <v>44349</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3296,13 +3296,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>6.2</v>
+        <v>4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3339,14 +3334,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 26767-2021</t>
+          <t>A 40753-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44349</v>
+        <v>44420</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3358,8 +3353,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>2.3</v>
+        <v>6.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3396,14 +3396,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 37422-2021</t>
+          <t>A 26767-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44398</v>
+        <v>44349</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>25.8</v>
+        <v>2.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3460,7 +3460,7 @@
         <v>44621</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44285</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>44333</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>44418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>44285</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>44300</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44342</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>44340.66033564815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>44242</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>44538</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>44424</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>44418</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>44553.79121527778</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>44553.81094907408</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>44553.81719907407</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         <v>44418</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>44455.45670138889</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>44258</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>44854</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4581,14 +4581,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 7457-2025</t>
+          <t>A 26750-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45705.43699074074</v>
+        <v>44349</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4638,14 +4638,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 37491-2022</t>
+          <t>A 52911-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44809</v>
+        <v>45610.70392361111</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4.3</v>
+        <v>0.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4695,14 +4695,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 17991-2024</t>
+          <t>A 8932-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45419</v>
+        <v>44979</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.3</v>
+        <v>2.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4752,14 +4752,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 26750-2021</t>
+          <t>A 44619-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44349</v>
+        <v>45189</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3</v>
+        <v>7.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4809,14 +4809,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 37097-2021</t>
+          <t>A 636-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44395</v>
+        <v>45664.63822916667</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4866,14 +4866,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 26501-2024</t>
+          <t>A 1658-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45469</v>
+        <v>44574</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4885,8 +4885,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4923,14 +4928,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 8932-2023</t>
+          <t>A 15465-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44979</v>
+        <v>45747.51586805555</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4943,7 +4948,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4980,14 +4985,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 38771-2021</t>
+          <t>A 52910-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44410</v>
+        <v>45610.69866898148</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5000,7 +5005,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5037,14 +5042,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 9020-2023</t>
+          <t>A 24288-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44979</v>
+        <v>45457.4562037037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5056,13 +5061,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>8.1</v>
+        <v>1.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5099,14 +5099,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 6775-2022</t>
+          <t>A 38771-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44602.52413194445</v>
+        <v>44410</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4.7</v>
+        <v>0.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5156,14 +5156,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 13947-2025</t>
+          <t>A 26190-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45737</v>
+        <v>44735</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5213,14 +5213,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 29811-2025</t>
+          <t>A 23397-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45825</v>
+        <v>45791.90849537037</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5232,13 +5232,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>4.7</v>
+        <v>12.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5275,14 +5270,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 8932-2023</t>
+          <t>A 35356-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44979</v>
+        <v>45146.51179398148</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5295,7 +5290,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5332,14 +5327,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 1658-2022</t>
+          <t>A 18411-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44574</v>
+        <v>45762.61413194444</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5351,13 +5346,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5394,14 +5384,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 15176-2024</t>
+          <t>A 27748-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45400</v>
+        <v>45098</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5414,7 +5404,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5458,7 +5448,7 @@
         <v>45586.76025462963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5513,14 +5503,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 52953-2024</t>
+          <t>A 7180-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45610.92077546296</v>
+        <v>45344</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5533,7 +5523,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>6.4</v>
+        <v>1.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5570,14 +5560,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 13945-2025</t>
+          <t>A 13947-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45737.71512731481</v>
+        <v>45737</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5590,7 +5580,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5627,14 +5617,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 25175-2023</t>
+          <t>A 1658-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45086</v>
+        <v>44574</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5646,8 +5636,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5684,14 +5679,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 34385-2023</t>
+          <t>A 21202-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45139</v>
+        <v>45779.47872685185</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5704,7 +5699,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5741,14 +5736,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 52859-2024</t>
+          <t>A 2367-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45610.61542824074</v>
+        <v>44942.67042824074</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5761,7 +5756,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5798,14 +5793,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 23397-2025</t>
+          <t>A 37491-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45791.90849537037</v>
+        <v>44809</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5818,7 +5813,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>12.7</v>
+        <v>4.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5855,14 +5850,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 63931-2021</t>
+          <t>A 22730-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44509</v>
+        <v>45789.57819444445</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5880,7 +5875,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5917,14 +5912,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 62634-2022</t>
+          <t>A 22721-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44917</v>
+        <v>45789.57309027778</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5936,8 +5931,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>15.8</v>
+        <v>1.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5974,14 +5974,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 35483-2025</t>
+          <t>A 22740-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45855</v>
+        <v>45789.59407407408</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5993,8 +5993,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>7.5</v>
+        <v>0.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6031,14 +6036,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 24288-2024</t>
+          <t>A 31808-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45457.4562037037</v>
+        <v>45118.47105324074</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6050,8 +6055,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>1.3</v>
+        <v>4.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6088,14 +6098,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 8939-2023</t>
+          <t>A 41281-2021</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44979</v>
+        <v>44424</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6108,7 +6118,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6145,14 +6155,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 52911-2024</t>
+          <t>A 26501-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45610.70392361111</v>
+        <v>45469</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6165,7 +6175,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6202,14 +6212,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 36082-2025</t>
+          <t>A 9020-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45866.45336805555</v>
+        <v>44979</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6221,8 +6231,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>4.2</v>
+        <v>8.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6259,14 +6274,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 36468-2025</t>
+          <t>A 32092-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45869.47163194444</v>
+        <v>45119</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6278,8 +6293,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>12.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6316,14 +6336,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 36509-2025</t>
+          <t>A 37098-2021</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45869.57434027778</v>
+        <v>44396</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6336,7 +6356,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.1</v>
+        <v>12.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6373,14 +6393,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 36496-2025</t>
+          <t>A 46856-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45869.55287037037</v>
+        <v>45928.88810185185</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6393,7 +6413,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>5.3</v>
+        <v>2.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6430,14 +6450,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 57375-2024</t>
+          <t>A 46857-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45629.67396990741</v>
+        <v>45928.89146990741</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6450,7 +6470,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6487,14 +6507,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 47089-2023</t>
+          <t>A 29811-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45196</v>
+        <v>45825</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6506,8 +6526,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>0.8</v>
+        <v>4.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6544,14 +6569,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 47093-2023</t>
+          <t>A 63931-2021</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45196</v>
+        <v>44509</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6563,8 +6588,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6601,14 +6631,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 52950-2024</t>
+          <t>A 46818-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45610.89103009259</v>
+        <v>45926.71837962963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6621,7 +6651,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>5.3</v>
+        <v>9.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6658,14 +6688,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 15839-2025</t>
+          <t>A 62013-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45748.868125</v>
+        <v>45266</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6678,7 +6708,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6715,14 +6745,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 34818-2021</t>
+          <t>A 62038-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44383.35518518519</v>
+        <v>45266</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6735,7 +6765,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.9</v>
+        <v>5.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6772,14 +6802,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 46818-2025</t>
+          <t>A 47463-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45926.71837962963</v>
+        <v>45930.66210648148</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6792,7 +6822,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>9.4</v>
+        <v>2.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6829,14 +6859,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 18411-2025</t>
+          <t>A 47128-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45762.61413194444</v>
+        <v>45196</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6849,7 +6879,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>11</v>
+        <v>2.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6886,14 +6916,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 47463-2025</t>
+          <t>A 32074-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45930.66210648148</v>
+        <v>45119</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6905,8 +6935,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>2.8</v>
+        <v>13.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6943,14 +6978,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 46856-2025</t>
+          <t>A 48456-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45928.88810185185</v>
+        <v>45935.85752314814</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6963,7 +6998,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7000,14 +7035,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 46857-2025</t>
+          <t>A 9017-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45928.89146990741</v>
+        <v>44979</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7019,8 +7054,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7057,14 +7097,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 30910-2023</t>
+          <t>A 52953-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45113</v>
+        <v>45610.92077546296</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7077,7 +7117,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.2</v>
+        <v>6.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7114,14 +7154,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 48456-2025</t>
+          <t>A 13945-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45935.85752314814</v>
+        <v>45737.71512731481</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7134,7 +7174,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7171,14 +7211,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 37103-2021</t>
+          <t>A 35483-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44396</v>
+        <v>45855</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7191,7 +7231,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>12.4</v>
+        <v>7.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7228,14 +7268,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 37104-2021</t>
+          <t>A 36052-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44396</v>
+        <v>45149</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7248,7 +7288,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7285,14 +7325,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 51954-2025</t>
+          <t>A 15176-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45952</v>
+        <v>45400</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7305,7 +7345,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7342,14 +7382,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 34660-2023</t>
+          <t>A 36082-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45140</v>
+        <v>45866.45336805555</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7362,7 +7402,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7399,14 +7439,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 31808-2023</t>
+          <t>A 36509-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45118.47105324074</v>
+        <v>45869.57434027778</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7418,13 +7458,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>4.3</v>
+        <v>2.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7461,14 +7496,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 9062-2023</t>
+          <t>A 7457-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44979.72369212963</v>
+        <v>45705.43699074074</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7480,13 +7515,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7523,14 +7553,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 47128-2023</t>
+          <t>A 36496-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45196</v>
+        <v>45869.55287037037</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7543,7 +7573,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.1</v>
+        <v>5.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7580,14 +7610,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 2367-2023</t>
+          <t>A 36468-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44942.67042824074</v>
+        <v>45869.47163194444</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7600,7 +7630,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7637,14 +7667,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 56210-2025</t>
+          <t>A 6775-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45974.47630787037</v>
+        <v>44602.52413194445</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7657,7 +7687,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.6</v>
+        <v>4.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7694,14 +7724,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 56385-2025</t>
+          <t>A 52950-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45974.71993055556</v>
+        <v>45610.89103009259</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7714,7 +7744,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>6.1</v>
+        <v>5.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7751,14 +7781,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 26505-2024</t>
+          <t>A 17990-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45469</v>
+        <v>45419</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7771,7 +7801,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4.7</v>
+        <v>0.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7808,14 +7838,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 17990-2024</t>
+          <t>A 64411-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45419</v>
+        <v>45280.63304398148</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7828,7 +7858,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.4</v>
+        <v>5.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7865,14 +7895,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 32092-2023</t>
+          <t>A 51954-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45119</v>
+        <v>45952</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7884,13 +7914,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>12.4</v>
+        <v>0.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7927,14 +7952,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 40895-2024</t>
+          <t>A 3341-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45558.61607638889</v>
+        <v>45679</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7946,8 +7971,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7984,14 +8014,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 32011-2023</t>
+          <t>A 41677-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45119</v>
+        <v>45173</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8003,13 +8033,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8046,14 +8071,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 21192-2023</t>
+          <t>A 41680-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45062</v>
+        <v>45173</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8066,7 +8091,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>4.8</v>
+        <v>12.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8103,14 +8128,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 36052-2023</t>
+          <t>A 56210-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45149</v>
+        <v>45974.47630787037</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8123,7 +8148,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8160,14 +8185,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 48978-2023</t>
+          <t>A 56385-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45209</v>
+        <v>45974.71993055556</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8179,13 +8204,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>2.3</v>
+        <v>6.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8222,14 +8242,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 41680-2023</t>
+          <t>A 37097-2021</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45173</v>
+        <v>44395</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8242,7 +8262,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>12.3</v>
+        <v>1.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8279,14 +8299,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 26190-2022</t>
+          <t>A 57375-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44735</v>
+        <v>45629.67396990741</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8299,7 +8319,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8336,14 +8356,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 63463-2023</t>
+          <t>A 34818-2021</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45274</v>
+        <v>44383.35518518519</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8356,7 +8376,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8393,14 +8413,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 64494-2023</t>
+          <t>A 40895-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45280.93269675926</v>
+        <v>45558.61607638889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8413,7 +8433,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8450,14 +8470,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 5233-2026</t>
+          <t>A 2170-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>46049.83694444445</v>
+        <v>44941</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8470,7 +8490,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>9</v>
+        <v>3.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8507,14 +8527,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 62013-2023</t>
+          <t>A 21192-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45266</v>
+        <v>45062</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8527,7 +8547,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.6</v>
+        <v>4.8</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8564,14 +8584,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 55871-2023</t>
+          <t>A 9062-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45239.73435185185</v>
+        <v>44979.72369212963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8589,7 +8609,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>5.2</v>
+        <v>3.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8626,14 +8646,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 50956-2025</t>
+          <t>A 25175-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45946</v>
+        <v>45086</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8646,7 +8666,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8683,14 +8703,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 5884-2026</t>
+          <t>A 44206-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>46052.40635416667</v>
+        <v>45573</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8702,13 +8722,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>4.1</v>
+        <v>0.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8745,14 +8760,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 27748-2023</t>
+          <t>A 32011-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45098</v>
+        <v>45119</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8764,8 +8779,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>1.2</v>
+        <v>5.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8802,14 +8822,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 62038-2023</t>
+          <t>A 63463-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45266</v>
+        <v>45274</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8822,7 +8842,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>5.6</v>
+        <v>0.8</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8859,14 +8879,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 7180-2024</t>
+          <t>A 15460-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45344</v>
+        <v>45747.51049768519</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8879,7 +8899,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8916,14 +8936,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 41677-2023</t>
+          <t>A 33667-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45173</v>
+        <v>44789</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8936,7 +8956,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>6.2</v>
+        <v>3.3</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8980,7 +9000,7 @@
         <v>45272</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9030,14 +9050,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 17634-2022</t>
+          <t>A 5233-2026</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44680</v>
+        <v>46049.83694444445</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9050,7 +9070,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.6</v>
+        <v>9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9087,14 +9107,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 44619-2023</t>
+          <t>A 62634-2022</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45189</v>
+        <v>44917</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9107,7 +9127,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>7.6</v>
+        <v>15.8</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9144,14 +9164,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 64411-2023</t>
+          <t>A 37103-2021</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45280.63304398148</v>
+        <v>44396</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9164,7 +9184,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>5.6</v>
+        <v>12.4</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9201,14 +9221,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 44206-2024</t>
+          <t>A 37104-2021</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45573</v>
+        <v>44396</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9221,7 +9241,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.8</v>
+        <v>3.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9258,14 +9278,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 52910-2024</t>
+          <t>A 50956-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45610.69866898148</v>
+        <v>45946</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9278,7 +9298,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9315,14 +9335,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 44624-2023</t>
+          <t>A 55871-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45184</v>
+        <v>45239.73435185185</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9334,8 +9354,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G137" t="n">
-        <v>6.8</v>
+        <v>5.2</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9372,14 +9397,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 9017-2023</t>
+          <t>A 26505-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44979</v>
+        <v>45469</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9391,13 +9416,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9434,14 +9454,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 32074-2023</t>
+          <t>A 5884-2026</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45119</v>
+        <v>46052.40635416667</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9455,11 +9475,11 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>13.1</v>
+        <v>4.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9496,14 +9516,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 33787-2024</t>
+          <t>A 52859-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45520</v>
+        <v>45610.61542824074</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9516,7 +9536,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9553,14 +9573,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 41281-2021</t>
+          <t>A 34385-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44424</v>
+        <v>45139</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9573,7 +9593,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9610,14 +9630,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 35356-2023</t>
+          <t>A 34660-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45146.51179398148</v>
+        <v>45140</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9630,7 +9650,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9667,14 +9687,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 33667-2022</t>
+          <t>A 44624-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44789</v>
+        <v>45184</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9687,7 +9707,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3.3</v>
+        <v>6.8</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9724,14 +9744,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 15460-2025</t>
+          <t>A 30910-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45747.51049768519</v>
+        <v>45113</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9744,7 +9764,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9781,14 +9801,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 16793-2023</t>
+          <t>A 15839-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45028</v>
+        <v>45748.868125</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9801,7 +9821,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9838,14 +9858,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 10224-2023</t>
+          <t>A 41767-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44986.61554398148</v>
+        <v>45561.34616898148</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9858,7 +9878,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9895,14 +9915,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 636-2025</t>
+          <t>A 64494-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45664.63822916667</v>
+        <v>45280.93269675926</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9915,7 +9935,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9952,14 +9972,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 60977-2022</t>
+          <t>A 47089-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44908</v>
+        <v>45196</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9972,7 +9992,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10009,14 +10029,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 2170-2023</t>
+          <t>A 47093-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44941</v>
+        <v>45196</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10029,7 +10049,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10066,14 +10086,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 41767-2024</t>
+          <t>A 8939-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45561.34616898148</v>
+        <v>44979</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10086,7 +10106,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10123,14 +10143,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 15465-2025</t>
+          <t>A 48978-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45747.51586805555</v>
+        <v>45209</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10142,8 +10162,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G151" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10180,14 +10205,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 3341-2025</t>
+          <t>A 60977-2022</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45679</v>
+        <v>44908</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10199,13 +10224,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G152" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10242,14 +10262,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 1658-2022</t>
+          <t>A 17991-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44574</v>
+        <v>45419</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10261,13 +10281,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G153" t="n">
-        <v>2.5</v>
+        <v>0.3</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10304,14 +10319,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 21202-2025</t>
+          <t>A 16793-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45779.47872685185</v>
+        <v>45028</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10324,7 +10339,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>3.5</v>
+        <v>0.8</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10361,14 +10376,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 22721-2025</t>
+          <t>A 8932-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45789.57309027778</v>
+        <v>44979</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10380,13 +10395,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G155" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10423,14 +10433,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 22740-2025</t>
+          <t>A 10224-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45789.59407407408</v>
+        <v>44986.61554398148</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10442,13 +10452,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G156" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10485,14 +10490,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 22730-2025</t>
+          <t>A 17634-2022</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45789.57819444445</v>
+        <v>44680</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10504,13 +10509,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G157" t="n">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10547,14 +10547,14 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 37098-2021</t>
+          <t>A 33787-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44396</v>
+        <v>45520</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>12.9</v>
+        <v>2.2</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>

--- a/Översikt NYNÄSHAMN.xlsx
+++ b/Översikt NYNÄSHAMN.xlsx
@@ -575,7 +575,7 @@
         <v>45569</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>45856</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
         <v>44935</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>45257</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45846</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>44873.62881944444</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         <v>44424</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1243,14 +1243,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 22716-2025</t>
+          <t>A 36131-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45789.56619212963</v>
+        <v>45866.62395833333</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,22 +1262,17 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>5.2</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1292,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1301,135 +1296,140 @@
         <v>3</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Vedskivlav
+Fällmossa
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 36131-2025 artfynd.xlsx", "A 36131-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 36131-2025 karta.png", "A 36131-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 36131-2025 FSC-klagomål.docx", "A 36131-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 36131-2025 FSC-klagomål mail.docx", "A 36131-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 36131-2025 tillsynsbegäran.docx", "A 36131-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 36131-2025 tillsynsbegäran mail.docx", "A 36131-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 22716-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45789.56619212963</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NYNÄSHAMN</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Björksplintborre
 Stekelbock
 Revlummer</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 22716-2025 artfynd.xlsx", "A 22716-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 22716-2025 karta.png", "A 22716-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 22716-2025 FSC-klagomål.docx", "A 22716-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 22716-2025 FSC-klagomål mail.docx", "A 22716-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 22716-2025 tillsynsbegäran.docx", "A 22716-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 22716-2025 tillsynsbegäran mail.docx", "A 22716-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 36131-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45866.62395833333</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>NYNÄSHAMN</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>3</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Vedskivlav
-Fällmossa
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 36131-2025 artfynd.xlsx", "A 36131-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 36131-2025 karta.png", "A 36131-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 36131-2025 FSC-klagomål.docx", "A 36131-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 36131-2025 FSC-klagomål mail.docx", "A 36131-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 36131-2025 tillsynsbegäran.docx", "A 36131-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 36131-2025 tillsynsbegäran mail.docx", "A 36131-2025")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 16869-2021</t>
+          <t>A 15314-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44295</v>
+        <v>44284</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1447,16 +1447,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1471,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1481,137 +1481,137 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
+          <t>Granticka
+Grön sköldmossa</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 15314-2021 artfynd.xlsx", "A 15314-2021")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 15314-2021 karta.png", "A 15314-2021")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 15314-2021 FSC-klagomål.docx", "A 15314-2021")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 15314-2021 FSC-klagomål mail.docx", "A 15314-2021")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 15314-2021 tillsynsbegäran.docx", "A 15314-2021")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 15314-2021 tillsynsbegäran mail.docx", "A 15314-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 16869-2021</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>44295</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NYNÄSHAMN</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
           <t>Grön sköldmossa
 Kattfotslav</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 16869-2021 artfynd.xlsx", "A 16869-2021")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 16869-2021 karta.png", "A 16869-2021")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 16869-2021 FSC-klagomål.docx", "A 16869-2021")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 16869-2021 FSC-klagomål mail.docx", "A 16869-2021")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 16869-2021 tillsynsbegäran.docx", "A 16869-2021")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 16869-2021 tillsynsbegäran mail.docx", "A 16869-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 15314-2021</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>44284</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>NYNÄSHAMN</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>9</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Granticka
-Grön sköldmossa</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 15314-2021 artfynd.xlsx", "A 15314-2021")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 15314-2021 karta.png", "A 15314-2021")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 15314-2021 FSC-klagomål.docx", "A 15314-2021")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 15314-2021 FSC-klagomål mail.docx", "A 15314-2021")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 15314-2021 tillsynsbegäran.docx", "A 15314-2021")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 15314-2021 tillsynsbegäran mail.docx", "A 15314-2021")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 9268-2023</t>
+          <t>A 64189-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44980</v>
+        <v>45279</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1624,16 +1624,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.9</v>
+        <v>1.5</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1658,466 +1658,466 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
+          <t>Blåsippa
+Gullviva</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 64189-2023 artfynd.xlsx", "A 64189-2023")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 64189-2023 karta.png", "A 64189-2023")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 64189-2023 FSC-klagomål.docx", "A 64189-2023")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 64189-2023 FSC-klagomål mail.docx", "A 64189-2023")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 64189-2023 tillsynsbegäran.docx", "A 64189-2023")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 64189-2023 tillsynsbegäran mail.docx", "A 64189-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 5567-2023</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>44960</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NYNÄSHAMN</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Sårläka
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 5567-2023 artfynd.xlsx", "A 5567-2023")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 5567-2023 karta.png", "A 5567-2023")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 5567-2023 FSC-klagomål.docx", "A 5567-2023")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 5567-2023 FSC-klagomål mail.docx", "A 5567-2023")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 5567-2023 tillsynsbegäran.docx", "A 5567-2023")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 5567-2023 tillsynsbegäran mail.docx", "A 5567-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 9268-2023</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>44980</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NYNÄSHAMN</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
           <t>Tallticka
 Mindre märgborre</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 9268-2023 artfynd.xlsx", "A 9268-2023")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 9268-2023 karta.png", "A 9268-2023")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 9268-2023 FSC-klagomål.docx", "A 9268-2023")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 9268-2023 FSC-klagomål mail.docx", "A 9268-2023")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 9268-2023 tillsynsbegäran.docx", "A 9268-2023")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 9268-2023 tillsynsbegäran mail.docx", "A 9268-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 64189-2023</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45279</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>NYNÄSHAMN</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H14" t="n">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 19784-2025</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45771.43894675926</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NYNÄSHAMN</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="H16" t="n">
         <v>2</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>2</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Blåsippa
-Gullviva</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 64189-2023 artfynd.xlsx", "A 64189-2023")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 64189-2023 karta.png", "A 64189-2023")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 64189-2023 FSC-klagomål.docx", "A 64189-2023")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 64189-2023 FSC-klagomål mail.docx", "A 64189-2023")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 64189-2023 tillsynsbegäran.docx", "A 64189-2023")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 64189-2023 tillsynsbegäran mail.docx", "A 64189-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 19784-2025 artfynd.xlsx", "A 19784-2025")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 19784-2025 karta.png", "A 19784-2025")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 19784-2025 FSC-klagomål.docx", "A 19784-2025")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 19784-2025 FSC-klagomål mail.docx", "A 19784-2025")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 19784-2025 tillsynsbegäran.docx", "A 19784-2025")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 19784-2025 tillsynsbegäran mail.docx", "A 19784-2025")</f>
+        <v/>
+      </c>
+      <c r="Z16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/fåglar/A 19784-2025 prioriterade fågelarter.docx", "A 19784-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 1561-2023</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>44937.60278935185</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>NYNÄSHAMN</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
+      <c r="C17" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NYNÄSHAMN</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
         <v>1.3</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H17" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>1</v>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>2</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Tallticka
 Blåsippa</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 1561-2023 artfynd.xlsx", "A 1561-2023")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 1561-2023 karta.png", "A 1561-2023")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 1561-2023 FSC-klagomål.docx", "A 1561-2023")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 1561-2023 FSC-klagomål mail.docx", "A 1561-2023")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 1561-2023 tillsynsbegäran.docx", "A 1561-2023")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 1561-2023 tillsynsbegäran mail.docx", "A 1561-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>A 49523-2023</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B18" s="1" t="n">
         <v>45211</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>NYNÄSHAMN</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
+      <c r="C18" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NYNÄSHAMN</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
         <v>2.2</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>2</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>2</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Grönpyrola
 Västlig hakmossa</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 49523-2023 artfynd.xlsx", "A 49523-2023")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 49523-2023 karta.png", "A 49523-2023")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 49523-2023 FSC-klagomål.docx", "A 49523-2023")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 49523-2023 FSC-klagomål mail.docx", "A 49523-2023")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 49523-2023 tillsynsbegäran.docx", "A 49523-2023")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 49523-2023 tillsynsbegäran mail.docx", "A 49523-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 5567-2023</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>44960</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>NYNÄSHAMN</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Sårläka
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 5567-2023 artfynd.xlsx", "A 5567-2023")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 5567-2023 karta.png", "A 5567-2023")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 5567-2023 FSC-klagomål.docx", "A 5567-2023")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 5567-2023 FSC-klagomål mail.docx", "A 5567-2023")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 5567-2023 tillsynsbegäran.docx", "A 5567-2023")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 5567-2023 tillsynsbegäran mail.docx", "A 5567-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 19784-2025</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>45771.43894675926</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>NYNÄSHAMN</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 19784-2025 artfynd.xlsx", "A 19784-2025")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 19784-2025 karta.png", "A 19784-2025")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 19784-2025 FSC-klagomål.docx", "A 19784-2025")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 19784-2025 FSC-klagomål mail.docx", "A 19784-2025")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 19784-2025 tillsynsbegäran.docx", "A 19784-2025")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 19784-2025 tillsynsbegäran mail.docx", "A 19784-2025")</f>
-        <v/>
-      </c>
-      <c r="Z18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/fåglar/A 19784-2025 prioriterade fågelarter.docx", "A 19784-2025")</f>
         <v/>
       </c>
     </row>
@@ -2131,7 +2131,7 @@
         <v>44370</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>44271</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2299,14 +2299,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 16309-2022</t>
+          <t>A 4688-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44670</v>
+        <v>44957</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>7.7</v>
+        <v>0.9</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -2328,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2343,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2353,45 +2353,49 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Lundsångare</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 16309-2022 artfynd.xlsx", "A 16309-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 4688-2023 artfynd.xlsx", "A 4688-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 16309-2022 karta.png", "A 16309-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 4688-2023 karta.png", "A 4688-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 16309-2022 FSC-klagomål.docx", "A 16309-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 4688-2023 FSC-klagomål.docx", "A 4688-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 16309-2022 FSC-klagomål mail.docx", "A 16309-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 4688-2023 FSC-klagomål mail.docx", "A 4688-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 16309-2022 tillsynsbegäran.docx", "A 16309-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 4688-2023 tillsynsbegäran.docx", "A 4688-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 16309-2022 tillsynsbegäran mail.docx", "A 16309-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 4688-2023 tillsynsbegäran mail.docx", "A 4688-2023")</f>
+        <v/>
+      </c>
+      <c r="Z21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/fåglar/A 4688-2023 prioriterade fågelarter.docx", "A 4688-2023")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 31842-2023</t>
+          <t>A 64196-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45118</v>
+        <v>45279</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2403,19 +2407,14 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2443,45 +2442,45 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 31842-2023 artfynd.xlsx", "A 31842-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 64196-2023 artfynd.xlsx", "A 64196-2023")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 31842-2023 karta.png", "A 31842-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 64196-2023 karta.png", "A 64196-2023")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 31842-2023 FSC-klagomål.docx", "A 31842-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 64196-2023 FSC-klagomål.docx", "A 64196-2023")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 31842-2023 FSC-klagomål mail.docx", "A 31842-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 64196-2023 FSC-klagomål mail.docx", "A 64196-2023")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 31842-2023 tillsynsbegäran.docx", "A 31842-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 64196-2023 tillsynsbegäran.docx", "A 64196-2023")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 31842-2023 tillsynsbegäran mail.docx", "A 31842-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 64196-2023 tillsynsbegäran mail.docx", "A 64196-2023")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 64196-2023</t>
+          <t>A 37100-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45279</v>
+        <v>44396</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2494,13 +2493,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2528,45 +2527,45 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 64196-2023 artfynd.xlsx", "A 64196-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 37100-2021 artfynd.xlsx", "A 37100-2021")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 64196-2023 karta.png", "A 64196-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 37100-2021 karta.png", "A 37100-2021")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 64196-2023 FSC-klagomål.docx", "A 64196-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 37100-2021 FSC-klagomål.docx", "A 37100-2021")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 64196-2023 FSC-klagomål mail.docx", "A 64196-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 37100-2021 FSC-klagomål mail.docx", "A 37100-2021")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 64196-2023 tillsynsbegäran.docx", "A 64196-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 37100-2021 tillsynsbegäran.docx", "A 37100-2021")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 64196-2023 tillsynsbegäran mail.docx", "A 64196-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 37100-2021 tillsynsbegäran mail.docx", "A 37100-2021")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 37100-2021</t>
+          <t>A 31842-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44396</v>
+        <v>45118</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2578,8 +2577,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -2617,27 +2621,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 37100-2021 artfynd.xlsx", "A 37100-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 31842-2023 artfynd.xlsx", "A 31842-2023")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 37100-2021 karta.png", "A 37100-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 31842-2023 karta.png", "A 31842-2023")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 37100-2021 FSC-klagomål.docx", "A 37100-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 31842-2023 FSC-klagomål.docx", "A 31842-2023")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 37100-2021 FSC-klagomål mail.docx", "A 37100-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 31842-2023 FSC-klagomål mail.docx", "A 31842-2023")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 37100-2021 tillsynsbegäran.docx", "A 37100-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 31842-2023 tillsynsbegäran.docx", "A 31842-2023")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 37100-2021 tillsynsbegäran mail.docx", "A 37100-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 31842-2023 tillsynsbegäran mail.docx", "A 31842-2023")</f>
         <v/>
       </c>
     </row>
@@ -2651,7 +2655,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2729,14 +2733,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 10059-2022</t>
+          <t>A 31828-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44621</v>
+        <v>45118</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2748,8 +2752,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>17</v>
+        <v>2.7</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2783,31 +2792,31 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 10059-2022 artfynd.xlsx", "A 10059-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 31828-2023 artfynd.xlsx", "A 31828-2023")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 10059-2022 karta.png", "A 10059-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 31828-2023 karta.png", "A 31828-2023")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 10059-2022 FSC-klagomål.docx", "A 10059-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 31828-2023 FSC-klagomål.docx", "A 31828-2023")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 10059-2022 FSC-klagomål mail.docx", "A 10059-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 31828-2023 FSC-klagomål mail.docx", "A 31828-2023")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 10059-2022 tillsynsbegäran.docx", "A 10059-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 31828-2023 tillsynsbegäran.docx", "A 31828-2023")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 10059-2022 tillsynsbegäran mail.docx", "A 10059-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 31828-2023 tillsynsbegäran mail.docx", "A 31828-2023")</f>
         <v/>
       </c>
     </row>
@@ -2821,7 +2830,7 @@
         <v>45131</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2899,14 +2908,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 4688-2023</t>
+          <t>A 16309-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44957</v>
+        <v>44670</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2919,7 +2928,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.9</v>
+        <v>7.7</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -2928,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2943,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -2953,49 +2962,45 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Lundsångare</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 4688-2023 artfynd.xlsx", "A 4688-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 16309-2022 artfynd.xlsx", "A 16309-2022")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 4688-2023 karta.png", "A 4688-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 16309-2022 karta.png", "A 16309-2022")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 4688-2023 FSC-klagomål.docx", "A 4688-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 16309-2022 FSC-klagomål.docx", "A 16309-2022")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 4688-2023 FSC-klagomål mail.docx", "A 4688-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 16309-2022 FSC-klagomål mail.docx", "A 16309-2022")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 4688-2023 tillsynsbegäran.docx", "A 4688-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 16309-2022 tillsynsbegäran.docx", "A 16309-2022")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 4688-2023 tillsynsbegäran mail.docx", "A 4688-2023")</f>
-        <v/>
-      </c>
-      <c r="Z28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/fåglar/A 4688-2023 prioriterade fågelarter.docx", "A 4688-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 16309-2022 tillsynsbegäran mail.docx", "A 16309-2022")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 31828-2023</t>
+          <t>A 6435-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45118</v>
+        <v>44965</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3007,23 +3012,18 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
         <v>1</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -3047,45 +3047,45 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 31828-2023 artfynd.xlsx", "A 31828-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 6435-2023 artfynd.xlsx", "A 6435-2023")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 31828-2023 karta.png", "A 31828-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 6435-2023 karta.png", "A 6435-2023")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 31828-2023 FSC-klagomål.docx", "A 31828-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 6435-2023 FSC-klagomål.docx", "A 6435-2023")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 31828-2023 FSC-klagomål mail.docx", "A 31828-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 6435-2023 FSC-klagomål mail.docx", "A 6435-2023")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 31828-2023 tillsynsbegäran.docx", "A 31828-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 6435-2023 tillsynsbegäran.docx", "A 6435-2023")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 31828-2023 tillsynsbegäran mail.docx", "A 31828-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 6435-2023 tillsynsbegäran mail.docx", "A 6435-2023")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 6435-2023</t>
+          <t>A 10059-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44965</v>
+        <v>44621</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3098,16 +3098,16 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.8</v>
+        <v>17</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -3132,31 +3132,31 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 6435-2023 artfynd.xlsx", "A 6435-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 10059-2022 artfynd.xlsx", "A 10059-2022")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 6435-2023 karta.png", "A 6435-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 10059-2022 karta.png", "A 10059-2022")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 6435-2023 FSC-klagomål.docx", "A 6435-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 10059-2022 FSC-klagomål.docx", "A 10059-2022")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 6435-2023 FSC-klagomål mail.docx", "A 6435-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 10059-2022 FSC-klagomål mail.docx", "A 10059-2022")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 6435-2023 tillsynsbegäran.docx", "A 6435-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 10059-2022 tillsynsbegäran.docx", "A 10059-2022")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 6435-2023 tillsynsbegäran mail.docx", "A 6435-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 10059-2022 tillsynsbegäran mail.docx", "A 10059-2022")</f>
         <v/>
       </c>
     </row>
@@ -3170,7 +3170,7 @@
         <v>44410.60496527778</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3220,14 +3220,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 37422-2021</t>
+          <t>A 26757-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44398</v>
+        <v>44349</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>25.8</v>
+        <v>4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3277,14 +3277,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 26757-2021</t>
+          <t>A 40753-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44349</v>
+        <v>44420</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3296,8 +3296,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>4</v>
+        <v>6.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3334,14 +3339,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 40753-2021</t>
+          <t>A 26767-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44420</v>
+        <v>44349</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3353,13 +3358,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>6.2</v>
+        <v>2.3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3396,14 +3396,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 26767-2021</t>
+          <t>A 37422-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44349</v>
+        <v>44398</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.3</v>
+        <v>25.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3460,7 +3460,7 @@
         <v>44621</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44285</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>44333</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>44418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3691,14 +3691,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 15609-2021</t>
+          <t>A 40183-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44285</v>
+        <v>44418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>9.6</v>
+        <v>4.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3753,14 +3753,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 17835-2021</t>
+          <t>A 73963-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44300</v>
+        <v>44553.79121527778</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3810,14 +3810,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 25334-2021</t>
+          <t>A 73966-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44342</v>
+        <v>44553.81094907408</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3829,13 +3829,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>0.5</v>
+        <v>4.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3872,14 +3867,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 24805-2021</t>
+          <t>A 73967-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44340.66033564815</v>
+        <v>44553.81719907407</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3891,13 +3886,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3934,14 +3924,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 7683-2021</t>
+          <t>A 17835-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44242</v>
+        <v>44300</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3953,13 +3943,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4003,7 +3988,7 @@
         <v>44538</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4053,14 +4038,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 41378-2021</t>
+          <t>A 15609-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44424</v>
+        <v>44285</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4072,8 +4057,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>1.1</v>
+        <v>9.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4110,14 +4100,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 40183-2021</t>
+          <t>A 41378-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44418</v>
+        <v>44424</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4129,13 +4119,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>4.5</v>
+        <v>1.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4172,14 +4157,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 73963-2021</t>
+          <t>A 10525-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44553.79121527778</v>
+        <v>44258</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4192,7 +4177,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4229,14 +4214,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 73966-2021</t>
+          <t>A 49657-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44553.81094907408</v>
+        <v>44455.45670138889</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4249,7 +4234,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4.3</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4286,14 +4271,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 73967-2021</t>
+          <t>A 40143-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44553.81719907407</v>
+        <v>44418</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4305,8 +4290,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4343,14 +4333,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 40143-2021</t>
+          <t>A 25334-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44418</v>
+        <v>44342</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4368,7 +4358,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4405,14 +4395,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 49657-2021</t>
+          <t>A 24805-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44455.45670138889</v>
+        <v>44340.66033564815</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4424,8 +4414,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4462,14 +4457,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 10525-2021</t>
+          <t>A 8932-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44258</v>
+        <v>44979</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4482,7 +4477,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4519,14 +4514,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 48309-2022</t>
+          <t>A 38771-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44854</v>
+        <v>44410</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4538,13 +4533,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>7.4</v>
+        <v>0.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4581,14 +4571,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 26750-2021</t>
+          <t>A 48309-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44349</v>
+        <v>44854</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4600,8 +4590,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>3</v>
+        <v>7.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4638,14 +4633,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 52911-2024</t>
+          <t>A 37103-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45610.70392361111</v>
+        <v>44396</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4658,7 +4653,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.8</v>
+        <v>12.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4695,14 +4690,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 8932-2023</t>
+          <t>A 37104-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44979</v>
+        <v>44396</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4715,7 +4710,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4752,14 +4747,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 44619-2023</t>
+          <t>A 7457-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45189</v>
+        <v>45705.43699074074</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4772,7 +4767,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4809,14 +4804,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 636-2025</t>
+          <t>A 9020-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45664.63822916667</v>
+        <v>44979</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4828,8 +4823,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>0.6</v>
+        <v>8.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4866,14 +4866,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 1658-2022</t>
+          <t>A 6775-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44574</v>
+        <v>44602.52413194445</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4885,13 +4885,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>2.5</v>
+        <v>4.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4928,14 +4923,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 15465-2025</t>
+          <t>A 7683-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45747.51586805555</v>
+        <v>44242</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4947,8 +4942,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4985,14 +4985,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 52910-2024</t>
+          <t>A 37491-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45610.69866898148</v>
+        <v>44809</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.3</v>
+        <v>4.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5042,14 +5042,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 24288-2024</t>
+          <t>A 34660-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45457.4562037037</v>
+        <v>45140</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5099,14 +5099,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 38771-2021</t>
+          <t>A 13947-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44410</v>
+        <v>45737</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.4</v>
+        <v>5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5156,14 +5156,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 26190-2022</t>
+          <t>A 31808-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44735</v>
+        <v>45118.47105324074</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5175,8 +5175,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5213,14 +5218,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 23397-2025</t>
+          <t>A 9062-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45791.90849537037</v>
+        <v>44979.72369212963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5232,8 +5237,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>12.7</v>
+        <v>3.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5270,14 +5280,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 35356-2023</t>
+          <t>A 17991-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45146.51179398148</v>
+        <v>45419</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5290,7 +5300,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5327,14 +5337,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 18411-2025</t>
+          <t>A 26750-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45762.61413194444</v>
+        <v>44349</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5347,7 +5357,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5384,14 +5394,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 27748-2023</t>
+          <t>A 47128-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45098</v>
+        <v>45196</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5404,7 +5414,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5441,14 +5451,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 47258-2024</t>
+          <t>A 37097-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45586.76025462963</v>
+        <v>44395</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5460,13 +5470,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5503,14 +5508,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 7180-2024</t>
+          <t>A 2367-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45344</v>
+        <v>44942.67042824074</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5523,7 +5528,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5560,14 +5565,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 13947-2025</t>
+          <t>A 26501-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45737</v>
+        <v>45469</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5580,7 +5585,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5617,14 +5622,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 1658-2022</t>
+          <t>A 26505-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44574</v>
+        <v>45469</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5636,13 +5641,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>2.5</v>
+        <v>4.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5679,14 +5679,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 21202-2025</t>
+          <t>A 17634-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45779.47872685185</v>
+        <v>44680</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5736,14 +5736,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 2367-2023</t>
+          <t>A 15176-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44942.67042824074</v>
+        <v>45400</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5793,14 +5793,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 37491-2022</t>
+          <t>A 17990-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44809</v>
+        <v>45419</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4.3</v>
+        <v>0.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5850,14 +5850,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 22730-2025</t>
+          <t>A 47258-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45789.57819444445</v>
+        <v>45586.76025462963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5871,11 +5871,11 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5912,14 +5912,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 22721-2025</t>
+          <t>A 29811-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45789.57309027778</v>
+        <v>45825</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5933,11 +5933,11 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.7</v>
+        <v>4.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5974,14 +5974,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 22740-2025</t>
+          <t>A 44619-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45789.59407407408</v>
+        <v>45189</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5993,13 +5993,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>0.8</v>
+        <v>7.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6036,14 +6031,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 31808-2023</t>
+          <t>A 25175-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45118.47105324074</v>
+        <v>45086</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6055,13 +6050,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>4.3</v>
+        <v>1.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6098,14 +6088,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 41281-2021</t>
+          <t>A 34385-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44424</v>
+        <v>45139</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6118,7 +6108,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6155,14 +6145,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 26501-2024</t>
+          <t>A 52859-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45469</v>
+        <v>45610.61542824074</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6175,7 +6165,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6212,14 +6202,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 9020-2023</t>
+          <t>A 64411-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44979</v>
+        <v>45280.63304398148</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6231,13 +6221,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>8.1</v>
+        <v>5.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6281,7 +6266,7 @@
         <v>45119</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6336,14 +6321,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 37098-2021</t>
+          <t>A 63931-2021</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44396</v>
+        <v>44509</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6355,8 +6340,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>12.9</v>
+        <v>1.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6393,14 +6383,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 46856-2025</t>
+          <t>A 62634-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45928.88810185185</v>
+        <v>44917</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6413,7 +6403,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.2</v>
+        <v>15.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6450,14 +6440,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 46857-2025</t>
+          <t>A 24288-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45928.89146990741</v>
+        <v>45457.4562037037</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6470,7 +6460,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6507,14 +6497,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 29811-2025</t>
+          <t>A 8939-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45825</v>
+        <v>44979</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6526,13 +6516,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>4.7</v>
+        <v>2.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6569,14 +6554,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 63931-2021</t>
+          <t>A 44206-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44509</v>
+        <v>45573</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6588,13 +6573,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6631,14 +6611,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 46818-2025</t>
+          <t>A 52911-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45926.71837962963</v>
+        <v>45610.70392361111</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6651,7 +6631,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>9.4</v>
+        <v>0.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6688,14 +6668,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 62013-2023</t>
+          <t>A 40895-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45266</v>
+        <v>45558.61607638889</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6708,7 +6688,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6745,14 +6725,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 62038-2023</t>
+          <t>A 32011-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45266</v>
+        <v>45119</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6764,8 +6744,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6802,14 +6787,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 47463-2025</t>
+          <t>A 52910-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45930.66210648148</v>
+        <v>45610.69866898148</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6822,7 +6807,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6859,14 +6844,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 47128-2023</t>
+          <t>A 21192-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45196</v>
+        <v>45062</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6879,7 +6864,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.1</v>
+        <v>4.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6916,14 +6901,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 32074-2023</t>
+          <t>A 44624-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45119</v>
+        <v>45184</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6935,13 +6920,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>13.1</v>
+        <v>6.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6978,14 +6958,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 48456-2025</t>
+          <t>A 52953-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45935.85752314814</v>
+        <v>45610.92077546296</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6998,7 +6978,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>6.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7035,14 +7015,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 9017-2023</t>
+          <t>A 13945-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44979</v>
+        <v>45737.71512731481</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7054,13 +7034,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7097,14 +7072,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 52953-2024</t>
+          <t>A 9017-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45610.92077546296</v>
+        <v>44979</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7116,8 +7091,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>6.4</v>
+        <v>2.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7154,14 +7134,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 13945-2025</t>
+          <t>A 36052-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45737.71512731481</v>
+        <v>45149</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7174,7 +7154,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7211,14 +7191,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 35483-2025</t>
+          <t>A 48978-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45855</v>
+        <v>45209</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7230,8 +7210,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7268,14 +7253,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 36052-2023</t>
+          <t>A 41680-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45149</v>
+        <v>45173</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7288,7 +7273,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.9</v>
+        <v>12.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7325,14 +7310,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 15176-2024</t>
+          <t>A 57375-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45400</v>
+        <v>45629.67396990741</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7345,7 +7330,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7382,14 +7367,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 36082-2025</t>
+          <t>A 26190-2022</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45866.45336805555</v>
+        <v>44735</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7402,7 +7387,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7439,14 +7424,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 36509-2025</t>
+          <t>A 35483-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45869.57434027778</v>
+        <v>45855</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7459,7 +7444,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7496,14 +7481,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 7457-2025</t>
+          <t>A 63463-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45705.43699074074</v>
+        <v>45274</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7516,7 +7501,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>7.5</v>
+        <v>0.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7553,14 +7538,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 36496-2025</t>
+          <t>A 47089-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45869.55287037037</v>
+        <v>45196</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7573,7 +7558,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>5.3</v>
+        <v>0.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7610,14 +7595,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 36468-2025</t>
+          <t>A 47093-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45869.47163194444</v>
+        <v>45196</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7667,14 +7652,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 6775-2022</t>
+          <t>A 36082-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44602.52413194445</v>
+        <v>45866.45336805555</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7687,7 +7672,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7724,14 +7709,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 52950-2024</t>
+          <t>A 36468-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45610.89103009259</v>
+        <v>45869.47163194444</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7744,7 +7729,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>5.3</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7781,14 +7766,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 17990-2024</t>
+          <t>A 36509-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45419</v>
+        <v>45869.57434027778</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7801,7 +7786,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.4</v>
+        <v>2.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7838,14 +7823,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 64411-2023</t>
+          <t>A 36496-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45280.63304398148</v>
+        <v>45869.55287037037</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7858,7 +7843,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7895,14 +7880,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 51954-2025</t>
+          <t>A 64494-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45952</v>
+        <v>45280.93269675926</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7915,7 +7900,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7952,14 +7937,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 3341-2025</t>
+          <t>A 62013-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45679</v>
+        <v>45266</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7971,13 +7956,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8014,14 +7994,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 41677-2023</t>
+          <t>A 55871-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45173</v>
+        <v>45239.73435185185</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8033,8 +8013,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>6.2</v>
+        <v>5.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8071,14 +8056,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 41680-2023</t>
+          <t>A 15839-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45173</v>
+        <v>45748.868125</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8091,7 +8076,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>12.3</v>
+        <v>2.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8128,14 +8113,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 56210-2025</t>
+          <t>A 34818-2021</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45974.47630787037</v>
+        <v>44383.35518518519</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8148,7 +8133,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8185,14 +8170,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 56385-2025</t>
+          <t>A 18411-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45974.71993055556</v>
+        <v>45762.61413194444</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8205,7 +8190,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>6.1</v>
+        <v>11</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8242,14 +8227,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 37097-2021</t>
+          <t>A 32074-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44395</v>
+        <v>45119</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8261,8 +8246,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>1.5</v>
+        <v>13.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8299,14 +8289,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 57375-2024</t>
+          <t>A 27748-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45629.67396990741</v>
+        <v>45098</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8319,7 +8309,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8356,14 +8346,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 34818-2021</t>
+          <t>A 30910-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44383.35518518519</v>
+        <v>45113</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8376,7 +8366,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8413,14 +8403,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 40895-2024</t>
+          <t>A 52950-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45558.61607638889</v>
+        <v>45610.89103009259</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8433,7 +8423,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>3.7</v>
+        <v>5.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8470,14 +8460,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 2170-2023</t>
+          <t>A 62038-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44941</v>
+        <v>45266</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8490,7 +8480,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3.1</v>
+        <v>5.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8527,14 +8517,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 21192-2023</t>
+          <t>A 7180-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45062</v>
+        <v>45344</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8547,7 +8537,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>4.8</v>
+        <v>1.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8584,14 +8574,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 9062-2023</t>
+          <t>A 41677-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44979.72369212963</v>
+        <v>45173</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8603,13 +8593,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>3.4</v>
+        <v>6.2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8646,14 +8631,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 25175-2023</t>
+          <t>A 62878-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45086</v>
+        <v>45272</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8666,7 +8651,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8703,14 +8688,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 44206-2024</t>
+          <t>A 33787-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45573</v>
+        <v>45520</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8723,7 +8708,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8760,14 +8745,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 32011-2023</t>
+          <t>A 8932-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45119</v>
+        <v>44979</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8779,13 +8764,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>5.4</v>
+        <v>2.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8822,14 +8802,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 63463-2023</t>
+          <t>A 1658-2022</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45274</v>
+        <v>44574</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8841,8 +8821,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8879,14 +8864,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 15460-2025</t>
+          <t>A 41281-2021</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45747.51049768519</v>
+        <v>44424</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8899,7 +8884,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8936,14 +8921,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 33667-2022</t>
+          <t>A 35356-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44789</v>
+        <v>45146.51179398148</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8956,7 +8941,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8993,14 +8978,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 62878-2023</t>
+          <t>A 33667-2022</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45272</v>
+        <v>44789</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9013,7 +8998,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9050,14 +9035,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 5233-2026</t>
+          <t>A 15460-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>46049.83694444445</v>
+        <v>45747.51049768519</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9070,7 +9055,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>9</v>
+        <v>1.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9107,14 +9092,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 62634-2022</t>
+          <t>A 16793-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44917</v>
+        <v>45028</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9127,7 +9112,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>15.8</v>
+        <v>0.8</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9164,14 +9149,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 37103-2021</t>
+          <t>A 10224-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44396</v>
+        <v>44986.61554398148</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9184,7 +9169,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>12.4</v>
+        <v>1.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9221,14 +9206,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 37104-2021</t>
+          <t>A 636-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44396</v>
+        <v>45664.63822916667</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9241,7 +9226,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9278,14 +9263,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 50956-2025</t>
+          <t>A 23397-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45946</v>
+        <v>45791.90849537037</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9298,7 +9283,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>12.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9335,14 +9320,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 55871-2023</t>
+          <t>A 60977-2022</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45239.73435185185</v>
+        <v>44908</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9354,13 +9339,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>5.2</v>
+        <v>3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9397,14 +9377,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 26505-2024</t>
+          <t>A 2170-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45469</v>
+        <v>44941</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9417,7 +9397,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>4.7</v>
+        <v>3.1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9454,14 +9434,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 5884-2026</t>
+          <t>A 41767-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>46052.40635416667</v>
+        <v>45561.34616898148</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9473,13 +9453,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G139" t="n">
-        <v>4.1</v>
+        <v>0.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9516,14 +9491,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 52859-2024</t>
+          <t>A 15465-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45610.61542824074</v>
+        <v>45747.51586805555</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9536,7 +9511,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9573,14 +9548,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 34385-2023</t>
+          <t>A 3341-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45139</v>
+        <v>45679</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9592,8 +9567,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9630,14 +9610,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 34660-2023</t>
+          <t>A 1658-2022</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45140</v>
+        <v>44574</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9649,8 +9629,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G142" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9687,14 +9672,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 44624-2023</t>
+          <t>A 21202-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45184</v>
+        <v>45779.47872685185</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9707,7 +9692,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>6.8</v>
+        <v>3.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9744,14 +9729,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 30910-2023</t>
+          <t>A 46818-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45113</v>
+        <v>45926.71837962963</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9764,7 +9749,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.2</v>
+        <v>9.4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9801,14 +9786,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 15839-2025</t>
+          <t>A 47463-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45748.868125</v>
+        <v>45930.66210648148</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9821,7 +9806,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9858,14 +9843,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 41767-2024</t>
+          <t>A 46856-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45561.34616898148</v>
+        <v>45928.88810185185</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9878,7 +9863,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9915,14 +9900,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 64494-2023</t>
+          <t>A 46857-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45280.93269675926</v>
+        <v>45928.89146990741</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9935,7 +9920,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9972,14 +9957,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 47089-2023</t>
+          <t>A 48456-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45196</v>
+        <v>45935.85752314814</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9992,7 +9977,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10029,14 +10014,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 47093-2023</t>
+          <t>A 22721-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45196</v>
+        <v>45789.57309027778</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10048,8 +10033,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10086,14 +10076,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 8939-2023</t>
+          <t>A 22740-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44979</v>
+        <v>45789.59407407408</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10105,8 +10095,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G150" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10143,14 +10138,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 48978-2023</t>
+          <t>A 22730-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45209</v>
+        <v>45789.57819444445</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10164,11 +10159,11 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10205,14 +10200,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 60977-2022</t>
+          <t>A 51954-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44908</v>
+        <v>45952</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10225,7 +10220,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10262,14 +10257,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 17991-2024</t>
+          <t>A 37098-2021</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45419</v>
+        <v>44396</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10282,7 +10277,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.3</v>
+        <v>12.9</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10319,14 +10314,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 16793-2023</t>
+          <t>A 56210-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45028</v>
+        <v>45974.47630787037</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10339,7 +10334,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10376,14 +10371,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 8932-2023</t>
+          <t>A 56385-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44979</v>
+        <v>45974.71993055556</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10396,7 +10391,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.3</v>
+        <v>6.1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10433,14 +10428,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 10224-2023</t>
+          <t>A 50956-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44986.61554398148</v>
+        <v>45946</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10453,7 +10448,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10490,14 +10485,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 17634-2022</t>
+          <t>A 5884-2026</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44680</v>
+        <v>46052.40635416667</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10509,8 +10504,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G157" t="n">
-        <v>2.6</v>
+        <v>4.1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10547,14 +10547,14 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 33787-2024</t>
+          <t>A 5233-2026</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45520</v>
+        <v>46049.83694444445</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.2</v>
+        <v>9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>

--- a/Översikt NYNÄSHAMN.xlsx
+++ b/Översikt NYNÄSHAMN.xlsx
@@ -575,7 +575,7 @@
         <v>45569</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>45856</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
         <v>44935</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>45257</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45846</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>44873.62881944444</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         <v>44424</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>45866.62395833333</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>45789.56619212963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>44284</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44295</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1604,14 +1604,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 64189-2023</t>
+          <t>A 9268-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45279</v>
+        <v>44980</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1624,16 +1624,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.5</v>
+        <v>4.9</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1658,466 +1658,466 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
+          <t>Tallticka
+Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 9268-2023 artfynd.xlsx", "A 9268-2023")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 9268-2023 karta.png", "A 9268-2023")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 9268-2023 FSC-klagomål.docx", "A 9268-2023")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 9268-2023 FSC-klagomål mail.docx", "A 9268-2023")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 9268-2023 tillsynsbegäran.docx", "A 9268-2023")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 9268-2023 tillsynsbegäran mail.docx", "A 9268-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 64189-2023</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45279</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NYNÄSHAMN</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
           <t>Blåsippa
 Gullviva</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 64189-2023 artfynd.xlsx", "A 64189-2023")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 64189-2023 karta.png", "A 64189-2023")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 64189-2023 FSC-klagomål.docx", "A 64189-2023")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 64189-2023 FSC-klagomål mail.docx", "A 64189-2023")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 64189-2023 tillsynsbegäran.docx", "A 64189-2023")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 64189-2023 tillsynsbegäran mail.docx", "A 64189-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 1561-2023</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>44937.60278935185</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NYNÄSHAMN</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Tallticka
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 1561-2023 artfynd.xlsx", "A 1561-2023")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 1561-2023 karta.png", "A 1561-2023")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 1561-2023 FSC-klagomål.docx", "A 1561-2023")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 1561-2023 FSC-klagomål mail.docx", "A 1561-2023")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 1561-2023 tillsynsbegäran.docx", "A 1561-2023")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 1561-2023 tillsynsbegäran mail.docx", "A 1561-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 49523-2023</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45211</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NYNÄSHAMN</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Grönpyrola
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 49523-2023 artfynd.xlsx", "A 49523-2023")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 49523-2023 karta.png", "A 49523-2023")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 49523-2023 FSC-klagomål.docx", "A 49523-2023")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 49523-2023 FSC-klagomål mail.docx", "A 49523-2023")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 49523-2023 tillsynsbegäran.docx", "A 49523-2023")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 49523-2023 tillsynsbegäran mail.docx", "A 49523-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 5567-2023</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>44960</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>NYNÄSHAMN</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
+      <c r="C17" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NYNÄSHAMN</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
         <v>10.1</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H17" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>2</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Sårläka
 Blåsippa</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 5567-2023 artfynd.xlsx", "A 5567-2023")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 5567-2023 karta.png", "A 5567-2023")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 5567-2023 FSC-klagomål.docx", "A 5567-2023")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 5567-2023 FSC-klagomål mail.docx", "A 5567-2023")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 5567-2023 tillsynsbegäran.docx", "A 5567-2023")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 5567-2023 tillsynsbegäran mail.docx", "A 5567-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 9268-2023</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>44980</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>NYNÄSHAMN</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A 19784-2025</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>45771.43894675926</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NYNÄSHAMN</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>1</v>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>2</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Tallticka
-Mindre märgborre</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 9268-2023 artfynd.xlsx", "A 9268-2023")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 9268-2023 karta.png", "A 9268-2023")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 9268-2023 FSC-klagomål.docx", "A 9268-2023")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 9268-2023 FSC-klagomål mail.docx", "A 9268-2023")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 9268-2023 tillsynsbegäran.docx", "A 9268-2023")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 9268-2023 tillsynsbegäran mail.docx", "A 9268-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 19784-2025</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45771.43894675926</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>NYNÄSHAMN</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Revlummer</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 19784-2025 artfynd.xlsx", "A 19784-2025")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 19784-2025 karta.png", "A 19784-2025")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 19784-2025 FSC-klagomål.docx", "A 19784-2025")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 19784-2025 FSC-klagomål mail.docx", "A 19784-2025")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 19784-2025 tillsynsbegäran.docx", "A 19784-2025")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 19784-2025 tillsynsbegäran mail.docx", "A 19784-2025")</f>
         <v/>
       </c>
-      <c r="Z16">
+      <c r="Z18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0192/fåglar/A 19784-2025 prioriterade fågelarter.docx", "A 19784-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 1561-2023</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>44937.60278935185</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>NYNÄSHAMN</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Tallticka
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 1561-2023 artfynd.xlsx", "A 1561-2023")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 1561-2023 karta.png", "A 1561-2023")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 1561-2023 FSC-klagomål.docx", "A 1561-2023")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 1561-2023 FSC-klagomål mail.docx", "A 1561-2023")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 1561-2023 tillsynsbegäran.docx", "A 1561-2023")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 1561-2023 tillsynsbegäran mail.docx", "A 1561-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 49523-2023</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>45211</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>NYNÄSHAMN</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Grönpyrola
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 49523-2023 artfynd.xlsx", "A 49523-2023")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 49523-2023 karta.png", "A 49523-2023")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 49523-2023 FSC-klagomål.docx", "A 49523-2023")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 49523-2023 FSC-klagomål mail.docx", "A 49523-2023")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 49523-2023 tillsynsbegäran.docx", "A 49523-2023")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 49523-2023 tillsynsbegäran mail.docx", "A 49523-2023")</f>
         <v/>
       </c>
     </row>
@@ -2131,7 +2131,7 @@
         <v>44370</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>44271</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2299,14 +2299,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 4688-2023</t>
+          <t>A 31842-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44957</v>
+        <v>45118</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2318,17 +2318,22 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>0.9</v>
+        <v>3.8</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2343,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2353,35 +2358,31 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Lundsångare</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 4688-2023 artfynd.xlsx", "A 4688-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 31842-2023 artfynd.xlsx", "A 31842-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 4688-2023 karta.png", "A 4688-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 31842-2023 karta.png", "A 31842-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 4688-2023 FSC-klagomål.docx", "A 4688-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 31842-2023 FSC-klagomål.docx", "A 31842-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 4688-2023 FSC-klagomål mail.docx", "A 4688-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 31842-2023 FSC-klagomål mail.docx", "A 31842-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 4688-2023 tillsynsbegäran.docx", "A 4688-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 31842-2023 tillsynsbegäran.docx", "A 31842-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 4688-2023 tillsynsbegäran mail.docx", "A 4688-2023")</f>
-        <v/>
-      </c>
-      <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/fåglar/A 4688-2023 prioriterade fågelarter.docx", "A 4688-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 31842-2023 tillsynsbegäran mail.docx", "A 31842-2023")</f>
         <v/>
       </c>
     </row>
@@ -2395,7 +2396,7 @@
         <v>45279</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2480,7 +2481,7 @@
         <v>44396</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2558,14 +2559,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 31842-2023</t>
+          <t>A 31142-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45118</v>
+        <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2577,85 +2578,80 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G24" t="n">
-        <v>3.8</v>
+        <v>5.7</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
         <v>1</v>
       </c>
-      <c r="I24" t="n">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>1</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 31842-2023 artfynd.xlsx", "A 31842-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 31142-2023 artfynd.xlsx", "A 31142-2023")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 31842-2023 karta.png", "A 31842-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 31142-2023 karta.png", "A 31142-2023")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 31842-2023 FSC-klagomål.docx", "A 31842-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 31142-2023 FSC-klagomål.docx", "A 31142-2023")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 31842-2023 FSC-klagomål mail.docx", "A 31842-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 31142-2023 FSC-klagomål mail.docx", "A 31142-2023")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 31842-2023 tillsynsbegäran.docx", "A 31842-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 31142-2023 tillsynsbegäran.docx", "A 31142-2023")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 31842-2023 tillsynsbegäran mail.docx", "A 31842-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 31142-2023 tillsynsbegäran mail.docx", "A 31142-2023")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 31142-2023</t>
+          <t>A 10059-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45113</v>
+        <v>44621</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2668,13 +2664,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>5.7</v>
+        <v>17</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2683,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -2692,55 +2688,55 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 31142-2023 artfynd.xlsx", "A 31142-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 10059-2022 artfynd.xlsx", "A 10059-2022")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 31142-2023 karta.png", "A 31142-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 10059-2022 karta.png", "A 10059-2022")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 31142-2023 FSC-klagomål.docx", "A 31142-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 10059-2022 FSC-klagomål.docx", "A 10059-2022")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 31142-2023 FSC-klagomål mail.docx", "A 31142-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 10059-2022 FSC-klagomål mail.docx", "A 10059-2022")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 31142-2023 tillsynsbegäran.docx", "A 31142-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 10059-2022 tillsynsbegäran.docx", "A 10059-2022")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 31142-2023 tillsynsbegäran mail.docx", "A 31142-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 10059-2022 tillsynsbegäran mail.docx", "A 10059-2022")</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 31828-2023</t>
+          <t>A 33528-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45118</v>
+        <v>45131</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2752,13 +2748,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G26" t="n">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2792,45 +2783,45 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Strutbräken</t>
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 31828-2023 artfynd.xlsx", "A 31828-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 33528-2023 artfynd.xlsx", "A 33528-2023")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 31828-2023 karta.png", "A 31828-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 33528-2023 karta.png", "A 33528-2023")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 31828-2023 FSC-klagomål.docx", "A 31828-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 33528-2023 FSC-klagomål.docx", "A 33528-2023")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 31828-2023 FSC-klagomål mail.docx", "A 31828-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 33528-2023 FSC-klagomål mail.docx", "A 33528-2023")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 31828-2023 tillsynsbegäran.docx", "A 31828-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 33528-2023 tillsynsbegäran.docx", "A 33528-2023")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 31828-2023 tillsynsbegäran mail.docx", "A 31828-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 33528-2023 tillsynsbegäran mail.docx", "A 33528-2023")</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 33528-2023</t>
+          <t>A 4688-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45131</v>
+        <v>44957</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2843,17 +2834,17 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
         <v>1</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
@@ -2867,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -2877,45 +2868,49 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Strutbräken</t>
+          <t>Lundsångare</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 33528-2023 artfynd.xlsx", "A 33528-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 4688-2023 artfynd.xlsx", "A 4688-2023")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 33528-2023 karta.png", "A 33528-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 4688-2023 karta.png", "A 4688-2023")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 33528-2023 FSC-klagomål.docx", "A 33528-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 4688-2023 FSC-klagomål.docx", "A 4688-2023")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 33528-2023 FSC-klagomål mail.docx", "A 33528-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 4688-2023 FSC-klagomål mail.docx", "A 4688-2023")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 33528-2023 tillsynsbegäran.docx", "A 33528-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 4688-2023 tillsynsbegäran.docx", "A 4688-2023")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 33528-2023 tillsynsbegäran mail.docx", "A 33528-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 4688-2023 tillsynsbegäran mail.docx", "A 4688-2023")</f>
+        <v/>
+      </c>
+      <c r="Z27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/fåglar/A 4688-2023 prioriterade fågelarter.docx", "A 4688-2023")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 16309-2022</t>
+          <t>A 31828-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44670</v>
+        <v>45118</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2927,14 +2922,19 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G28" t="n">
-        <v>7.7</v>
+        <v>2.7</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2962,31 +2962,31 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 16309-2022 artfynd.xlsx", "A 16309-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 31828-2023 artfynd.xlsx", "A 31828-2023")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 16309-2022 karta.png", "A 16309-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 31828-2023 karta.png", "A 31828-2023")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 16309-2022 FSC-klagomål.docx", "A 16309-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 31828-2023 FSC-klagomål.docx", "A 31828-2023")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 16309-2022 FSC-klagomål mail.docx", "A 16309-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 31828-2023 FSC-klagomål mail.docx", "A 31828-2023")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 16309-2022 tillsynsbegäran.docx", "A 16309-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 31828-2023 tillsynsbegäran.docx", "A 31828-2023")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 16309-2022 tillsynsbegäran mail.docx", "A 16309-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 31828-2023 tillsynsbegäran mail.docx", "A 31828-2023")</f>
         <v/>
       </c>
     </row>
@@ -3000,7 +3000,7 @@
         <v>44965</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3078,14 +3078,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 10059-2022</t>
+          <t>A 16309-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44621</v>
+        <v>44670</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3098,13 +3098,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>17</v>
+        <v>7.7</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3132,31 +3132,31 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 10059-2022 artfynd.xlsx", "A 10059-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/artfynd/A 16309-2022 artfynd.xlsx", "A 16309-2022")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 10059-2022 karta.png", "A 10059-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/kartor/A 16309-2022 karta.png", "A 16309-2022")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 10059-2022 FSC-klagomål.docx", "A 10059-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomål/A 16309-2022 FSC-klagomål.docx", "A 16309-2022")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 10059-2022 FSC-klagomål mail.docx", "A 10059-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/klagomålsmail/A 16309-2022 FSC-klagomål mail.docx", "A 16309-2022")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 10059-2022 tillsynsbegäran.docx", "A 10059-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsyn/A 16309-2022 tillsynsbegäran.docx", "A 16309-2022")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 10059-2022 tillsynsbegäran mail.docx", "A 10059-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0192/tillsynsmail/A 16309-2022 tillsynsbegäran mail.docx", "A 16309-2022")</f>
         <v/>
       </c>
     </row>
@@ -3170,7 +3170,7 @@
         <v>44410.60496527778</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>44349</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>44420</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>44349</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>44398</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>44621</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44285</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>44333</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>44418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3691,14 +3691,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 40183-2021</t>
+          <t>A 15609-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44418</v>
+        <v>44285</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4.5</v>
+        <v>9.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3753,14 +3753,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 73963-2021</t>
+          <t>A 17835-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44553.79121527778</v>
+        <v>44300</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3810,14 +3810,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 73966-2021</t>
+          <t>A 25334-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44553.81094907408</v>
+        <v>44342</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3829,8 +3829,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>4.3</v>
+        <v>0.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3867,14 +3872,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 73967-2021</t>
+          <t>A 24805-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44553.81719907407</v>
+        <v>44340.66033564815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3886,8 +3891,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3924,14 +3934,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 17835-2021</t>
+          <t>A 7683-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44300</v>
+        <v>44242</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3943,8 +3953,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3988,7 +4003,7 @@
         <v>44538</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4038,14 +4053,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 15609-2021</t>
+          <t>A 41378-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44285</v>
+        <v>44424</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4057,13 +4072,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>9.6</v>
+        <v>1.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4100,14 +4110,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 41378-2021</t>
+          <t>A 40183-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44424</v>
+        <v>44418</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4119,8 +4129,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>1.1</v>
+        <v>4.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4157,14 +4172,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 10525-2021</t>
+          <t>A 73963-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44258</v>
+        <v>44553.79121527778</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4177,7 +4192,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4214,14 +4229,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 49657-2021</t>
+          <t>A 73966-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44455.45670138889</v>
+        <v>44553.81094907408</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4234,7 +4249,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4271,14 +4286,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 40143-2021</t>
+          <t>A 73967-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44418</v>
+        <v>44553.81719907407</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4290,13 +4305,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4333,14 +4343,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 25334-2021</t>
+          <t>A 40143-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44342</v>
+        <v>44418</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4358,7 +4368,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4395,14 +4405,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 24805-2021</t>
+          <t>A 10525-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44340.66033564815</v>
+        <v>44258</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4414,13 +4424,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4457,14 +4462,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 8932-2023</t>
+          <t>A 49657-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44979</v>
+        <v>44455.45670138889</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4477,7 +4482,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4514,14 +4519,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 38771-2021</t>
+          <t>A 48309-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44410</v>
+        <v>44854</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4533,8 +4538,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>0.4</v>
+        <v>7.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4571,14 +4581,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 48309-2022</t>
+          <t>A 26750-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44854</v>
+        <v>44349</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4590,13 +4600,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>7.4</v>
+        <v>3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4633,14 +4638,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 37103-2021</t>
+          <t>A 52911-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44396</v>
+        <v>45610.70392361111</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4653,7 +4658,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>12.4</v>
+        <v>0.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4690,14 +4695,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 37104-2021</t>
+          <t>A 15465-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44396</v>
+        <v>45747.51586805555</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4710,7 +4715,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4747,14 +4752,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 7457-2025</t>
+          <t>A 24288-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45705.43699074074</v>
+        <v>45457.4562037037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4767,7 +4772,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>7.5</v>
+        <v>1.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4804,14 +4809,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 9020-2023</t>
+          <t>A 26190-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44979</v>
+        <v>44735</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4823,13 +4828,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>8.1</v>
+        <v>2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4866,14 +4866,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 6775-2022</t>
+          <t>A 27748-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44602.52413194445</v>
+        <v>45098</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4.7</v>
+        <v>1.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4923,14 +4923,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 7683-2021</t>
+          <t>A 7180-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44242</v>
+        <v>45344</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4942,13 +4942,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4985,14 +4980,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 37491-2022</t>
+          <t>A 2367-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44809</v>
+        <v>44942.67042824074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5005,7 +5000,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4.3</v>
+        <v>1.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5042,14 +5037,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 34660-2023</t>
+          <t>A 8932-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45140</v>
+        <v>44979</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5062,7 +5057,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5099,14 +5094,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 13947-2025</t>
+          <t>A 37491-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45737</v>
+        <v>44809</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5119,7 +5114,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5156,14 +5151,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 31808-2023</t>
+          <t>A 1658-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45118.47105324074</v>
+        <v>44574</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5181,7 +5176,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4.3</v>
+        <v>2.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5218,14 +5213,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 9062-2023</t>
+          <t>A 31808-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44979.72369212963</v>
+        <v>45118.47105324074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5243,7 +5238,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5280,14 +5275,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 17991-2024</t>
+          <t>A 37098-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45419</v>
+        <v>44396</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5300,7 +5295,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.3</v>
+        <v>12.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5337,14 +5332,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 26750-2021</t>
+          <t>A 41281-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44349</v>
+        <v>44424</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5357,7 +5352,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5394,14 +5389,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 47128-2023</t>
+          <t>A 5233-2026</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45196</v>
+        <v>46049.83694444445</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5414,7 +5409,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.1</v>
+        <v>9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5451,14 +5446,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 37097-2021</t>
+          <t>A 26501-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44395</v>
+        <v>45469</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5508,14 +5503,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 2367-2023</t>
+          <t>A 9020-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44942.67042824074</v>
+        <v>44979</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5527,8 +5522,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>1.2</v>
+        <v>8.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5565,14 +5565,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 26501-2024</t>
+          <t>A 32092-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45469</v>
+        <v>45119</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5584,8 +5584,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>1.5</v>
+        <v>12.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5622,14 +5627,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 26505-2024</t>
+          <t>A 29811-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45469</v>
+        <v>45825</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5639,6 +5644,11 @@
       <c r="E73" t="inlineStr">
         <is>
           <t>NYNÄSHAMN</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -5679,14 +5689,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 17634-2022</t>
+          <t>A 63931-2021</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44680</v>
+        <v>44509</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5698,8 +5708,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5736,14 +5751,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 15176-2024</t>
+          <t>A 52953-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45400</v>
+        <v>45610.92077546296</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5756,7 +5771,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>6.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5793,14 +5808,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 17990-2024</t>
+          <t>A 13945-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45419</v>
+        <v>45737.71512731481</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5813,7 +5828,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5850,14 +5865,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 47258-2024</t>
+          <t>A 62013-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45586.76025462963</v>
+        <v>45266</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5869,13 +5884,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5912,14 +5922,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 29811-2025</t>
+          <t>A 62038-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45825</v>
+        <v>45266</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5931,13 +5941,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>4.7</v>
+        <v>5.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5974,14 +5979,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 44619-2023</t>
+          <t>A 23397-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45189</v>
+        <v>45791.90849537037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5994,7 +5999,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>7.6</v>
+        <v>12.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6031,14 +6036,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 25175-2023</t>
+          <t>A 47128-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45086</v>
+        <v>45196</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6051,7 +6056,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6088,14 +6093,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 34385-2023</t>
+          <t>A 35483-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45139</v>
+        <v>45855</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6108,7 +6113,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.5</v>
+        <v>7.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6145,14 +6150,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 52859-2024</t>
+          <t>A 32074-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45610.61542824074</v>
+        <v>45119</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6164,8 +6169,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>1.3</v>
+        <v>13.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6202,14 +6212,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 64411-2023</t>
+          <t>A 36082-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45280.63304398148</v>
+        <v>45866.45336805555</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6222,7 +6232,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>5.6</v>
+        <v>4.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6259,14 +6269,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 32092-2023</t>
+          <t>A 36509-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45119</v>
+        <v>45869.57434027778</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6278,13 +6288,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>12.4</v>
+        <v>2.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6321,14 +6326,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 63931-2021</t>
+          <t>A 36496-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44509</v>
+        <v>45869.55287037037</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6340,13 +6345,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>1.5</v>
+        <v>5.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6383,14 +6383,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 62634-2022</t>
+          <t>A 36468-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44917</v>
+        <v>45869.47163194444</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>15.8</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6440,14 +6440,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 24288-2024</t>
+          <t>A 9017-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45457.4562037037</v>
+        <v>44979</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6459,8 +6459,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6497,14 +6502,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 8939-2023</t>
+          <t>A 36052-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44979</v>
+        <v>45149</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6517,7 +6522,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6554,14 +6559,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 44206-2024</t>
+          <t>A 52950-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45573</v>
+        <v>45610.89103009259</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6574,7 +6579,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.8</v>
+        <v>5.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6611,14 +6616,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 52911-2024</t>
+          <t>A 15176-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45610.70392361111</v>
+        <v>45400</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6631,7 +6636,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6668,14 +6673,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 40895-2024</t>
+          <t>A 7457-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45558.61607638889</v>
+        <v>45705.43699074074</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6688,7 +6693,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.7</v>
+        <v>7.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6725,14 +6730,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 32011-2023</t>
+          <t>A 46856-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45119</v>
+        <v>45928.88810185185</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6744,13 +6749,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>5.4</v>
+        <v>2.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6787,14 +6787,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 52910-2024</t>
+          <t>A 46857-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45610.69866898148</v>
+        <v>45928.89146990741</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6844,14 +6844,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 21192-2023</t>
+          <t>A 6775-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45062</v>
+        <v>44602.52413194445</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6901,14 +6901,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 44624-2023</t>
+          <t>A 46818-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45184</v>
+        <v>45926.71837962963</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>6.8</v>
+        <v>9.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6958,14 +6958,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 52953-2024</t>
+          <t>A 17990-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45610.92077546296</v>
+        <v>45419</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>6.4</v>
+        <v>0.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7015,14 +7015,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 13945-2025</t>
+          <t>A 47463-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45737.71512731481</v>
+        <v>45930.66210648148</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7072,14 +7072,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 9017-2023</t>
+          <t>A 64411-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44979</v>
+        <v>45280.63304398148</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7091,13 +7091,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>2.7</v>
+        <v>5.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7134,14 +7129,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 36052-2023</t>
+          <t>A 48456-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45149</v>
+        <v>45935.85752314814</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7154,7 +7149,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7191,14 +7186,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 48978-2023</t>
+          <t>A 3341-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45209</v>
+        <v>45679</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7212,11 +7207,11 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7253,14 +7248,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 41680-2023</t>
+          <t>A 41677-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
         <v>45173</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7273,7 +7268,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>12.3</v>
+        <v>6.2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7310,14 +7305,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 57375-2024</t>
+          <t>A 41680-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45629.67396990741</v>
+        <v>45173</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7330,7 +7325,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.9</v>
+        <v>12.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7367,14 +7362,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 26190-2022</t>
+          <t>A 37097-2021</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44735</v>
+        <v>44395</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7387,7 +7382,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7424,14 +7419,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 35483-2025</t>
+          <t>A 51954-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45855</v>
+        <v>45952</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7444,7 +7439,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>7.5</v>
+        <v>0.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7481,14 +7476,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 63463-2023</t>
+          <t>A 57375-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45274</v>
+        <v>45629.67396990741</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7501,7 +7496,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7538,14 +7533,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 47089-2023</t>
+          <t>A 34818-2021</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45196</v>
+        <v>44383.35518518519</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7558,7 +7553,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7595,14 +7590,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 47093-2023</t>
+          <t>A 40895-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45196</v>
+        <v>45558.61607638889</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7615,7 +7610,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7652,14 +7647,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 36082-2025</t>
+          <t>A 2170-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45866.45336805555</v>
+        <v>44941</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7672,7 +7667,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7709,14 +7704,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 36468-2025</t>
+          <t>A 21192-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45869.47163194444</v>
+        <v>45062</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7729,7 +7724,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>4.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7766,14 +7761,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 36509-2025</t>
+          <t>A 9062-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45869.57434027778</v>
+        <v>44979.72369212963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7785,8 +7780,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7823,14 +7823,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 36496-2025</t>
+          <t>A 25175-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45869.55287037037</v>
+        <v>45086</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>5.3</v>
+        <v>1.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7880,14 +7880,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 64494-2023</t>
+          <t>A 44206-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45280.93269675926</v>
+        <v>45573</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7937,14 +7937,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 62013-2023</t>
+          <t>A 56210-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45266</v>
+        <v>45974.47630787037</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7957,7 +7957,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7994,14 +7994,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 55871-2023</t>
+          <t>A 56385-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45239.73435185185</v>
+        <v>45974.71993055556</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8013,13 +8013,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>5.2</v>
+        <v>6.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8056,14 +8051,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 15839-2025</t>
+          <t>A 32011-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45748.868125</v>
+        <v>45119</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8075,8 +8070,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>2.9</v>
+        <v>5.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8113,14 +8113,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 34818-2021</t>
+          <t>A 63463-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44383.35518518519</v>
+        <v>45274</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8170,14 +8170,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 18411-2025</t>
+          <t>A 15460-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45762.61413194444</v>
+        <v>45747.51049768519</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>11</v>
+        <v>1.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8227,14 +8227,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 32074-2023</t>
+          <t>A 33667-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45119</v>
+        <v>44789</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8246,13 +8246,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>13.1</v>
+        <v>3.3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8289,14 +8284,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 27748-2023</t>
+          <t>A 62878-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45098</v>
+        <v>45272</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8309,7 +8304,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8346,14 +8341,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 30910-2023</t>
+          <t>A 62634-2022</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45113</v>
+        <v>44917</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8366,7 +8361,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.2</v>
+        <v>15.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8403,14 +8398,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 52950-2024</t>
+          <t>A 37103-2021</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45610.89103009259</v>
+        <v>44396</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8423,7 +8418,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>5.3</v>
+        <v>12.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8460,14 +8455,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 62038-2023</t>
+          <t>A 37104-2021</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45266</v>
+        <v>44396</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8480,7 +8475,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>5.6</v>
+        <v>3.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8517,14 +8512,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 7180-2024</t>
+          <t>A 55871-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45344</v>
+        <v>45239.73435185185</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8536,8 +8531,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>1.5</v>
+        <v>5.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8574,14 +8574,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 41677-2023</t>
+          <t>A 26505-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45173</v>
+        <v>45469</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>6.2</v>
+        <v>4.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8631,14 +8631,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 62878-2023</t>
+          <t>A 52859-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45272</v>
+        <v>45610.61542824074</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8688,14 +8688,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 33787-2024</t>
+          <t>A 34385-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45520</v>
+        <v>45139</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8745,14 +8745,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 8932-2023</t>
+          <t>A 34660-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44979</v>
+        <v>45140</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8802,14 +8802,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 1658-2022</t>
+          <t>A 50956-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44574</v>
+        <v>45946</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8821,13 +8821,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8864,14 +8859,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 41281-2021</t>
+          <t>A 44624-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44424</v>
+        <v>45184</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8884,7 +8879,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.7</v>
+        <v>6.8</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8921,14 +8916,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 35356-2023</t>
+          <t>A 5884-2026</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45146.51179398148</v>
+        <v>46052.40635416667</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8940,8 +8935,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>1.1</v>
+        <v>4.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8978,14 +8978,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 33667-2022</t>
+          <t>A 30910-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44789</v>
+        <v>45113</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9035,14 +9035,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 15460-2025</t>
+          <t>A 15839-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45747.51049768519</v>
+        <v>45748.868125</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9092,14 +9092,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 16793-2023</t>
+          <t>A 41767-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45028</v>
+        <v>45561.34616898148</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9149,14 +9149,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 10224-2023</t>
+          <t>A 64494-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44986.61554398148</v>
+        <v>45280.93269675926</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9206,14 +9206,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 636-2025</t>
+          <t>A 47089-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45664.63822916667</v>
+        <v>45196</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9263,14 +9263,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 23397-2025</t>
+          <t>A 47093-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45791.90849537037</v>
+        <v>45196</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>12.7</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9320,14 +9320,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 60977-2022</t>
+          <t>A 8939-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44908</v>
+        <v>44979</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9377,14 +9377,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 2170-2023</t>
+          <t>A 48978-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44941</v>
+        <v>45209</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9396,8 +9396,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9434,14 +9439,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 41767-2024</t>
+          <t>A 60977-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45561.34616898148</v>
+        <v>44908</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9454,7 +9459,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9491,14 +9496,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 15465-2025</t>
+          <t>A 17991-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45747.51586805555</v>
+        <v>45419</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9511,7 +9516,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9548,14 +9553,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 3341-2025</t>
+          <t>A 16793-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45679</v>
+        <v>45028</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9567,13 +9572,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9610,14 +9610,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 1658-2022</t>
+          <t>A 8932-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44574</v>
+        <v>44979</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9629,13 +9629,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9672,14 +9667,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 21202-2025</t>
+          <t>A 10224-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45779.47872685185</v>
+        <v>44986.61554398148</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9692,7 +9687,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9729,14 +9724,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 46818-2025</t>
+          <t>A 17634-2022</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45926.71837962963</v>
+        <v>44680</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9749,7 +9744,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>9.4</v>
+        <v>2.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9786,14 +9781,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 47463-2025</t>
+          <t>A 33787-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45930.66210648148</v>
+        <v>45520</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9806,7 +9801,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9843,14 +9838,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 46856-2025</t>
+          <t>A 44619-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45928.88810185185</v>
+        <v>45189</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9863,7 +9858,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.2</v>
+        <v>7.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9900,14 +9895,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 46857-2025</t>
+          <t>A 636-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45928.89146990741</v>
+        <v>45664.63822916667</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9920,7 +9915,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9957,14 +9952,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 48456-2025</t>
+          <t>A 52910-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45935.85752314814</v>
+        <v>45610.69866898148</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9977,7 +9972,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10014,14 +10009,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 22721-2025</t>
+          <t>A 38771-2021</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45789.57309027778</v>
+        <v>44410</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10033,13 +10028,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G149" t="n">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10076,14 +10066,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 22740-2025</t>
+          <t>A 35356-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45789.59407407408</v>
+        <v>45146.51179398148</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10095,13 +10085,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G150" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10138,14 +10123,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 22730-2025</t>
+          <t>A 18411-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45789.57819444445</v>
+        <v>45762.61413194444</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10157,13 +10142,8 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G151" t="n">
-        <v>3.8</v>
+        <v>11</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10200,14 +10180,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 51954-2025</t>
+          <t>A 47258-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45952</v>
+        <v>45586.76025462963</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10219,8 +10199,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10257,14 +10242,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 37098-2021</t>
+          <t>A 13947-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44396</v>
+        <v>45737</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10277,7 +10262,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>12.9</v>
+        <v>5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10314,14 +10299,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 56210-2025</t>
+          <t>A 1658-2022</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45974.47630787037</v>
+        <v>44574</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10333,8 +10318,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10371,14 +10361,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 56385-2025</t>
+          <t>A 21202-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45974.71993055556</v>
+        <v>45779.47872685185</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10391,7 +10381,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>6.1</v>
+        <v>3.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10428,14 +10418,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 50956-2025</t>
+          <t>A 22730-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45946</v>
+        <v>45789.57819444445</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10447,8 +10437,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10485,14 +10480,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 5884-2026</t>
+          <t>A 22721-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>46052.40635416667</v>
+        <v>45789.57309027778</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10506,11 +10501,11 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>4.1</v>
+        <v>1.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10547,14 +10542,14 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 5233-2026</t>
+          <t>A 22740-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>46049.83694444445</v>
+        <v>45789.59407407408</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10566,8 +10561,13 @@
           <t>NYNÄSHAMN</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G158" t="n">
-        <v>9</v>
+        <v>0.8</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
